--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="5080" windowWidth="25600" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="7000" yWindow="3380" windowWidth="25600" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pseudocode" sheetId="16" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="295">
   <si>
     <t>A</t>
   </si>
@@ -847,13 +847,82 @@
   </si>
   <si>
     <t>elif (month = 4, 6, 9 or 11) and ((day &lt; 1) or (day &gt; 30)):</t>
+  </si>
+  <si>
+    <t>print "Input number."</t>
+  </si>
+  <si>
+    <t>day = int(day)</t>
+  </si>
+  <si>
+    <t>while True:</t>
+  </si>
+  <si>
+    <t>if (day &lt; 10) or (day == 11) or (day ==22):</t>
+  </si>
+  <si>
+    <t>day = str(day)</t>
+  </si>
+  <si>
+    <t>day = raw_input("Input day: ")</t>
+  </si>
+  <si>
+    <t>single_day = int(day[0]) + int(day[1])</t>
+  </si>
+  <si>
+    <t>day = single_day</t>
+  </si>
+  <si>
+    <t>year = raw_input("Input year: ")</t>
+  </si>
+  <si>
+    <t>if (year &lt; 10) or (year == 11) or (year ==22):</t>
+  </si>
+  <si>
+    <t>elif year &gt; 99:</t>
+  </si>
+  <si>
+    <t>year = str(year)</t>
+  </si>
+  <si>
+    <t>single_year = int(year[0]) + int(year[1]) + int(year[2]) + int(year[3])</t>
+  </si>
+  <si>
+    <t>year = single_year</t>
+  </si>
+  <si>
+    <t>single_year = int(year[0]) + int(year[1])</t>
+  </si>
+  <si>
+    <t>month = raw_input("Input month: ")</t>
+  </si>
+  <si>
+    <t>if (month in [1, 3, 5, 7, 8, 10, 12]) and ((day &lt; 1) or (day &gt; 31)):</t>
+  </si>
+  <si>
+    <t>print "Wrong day!"</t>
+  </si>
+  <si>
+    <t>elif (month == 2) and ((day &lt; 1) or (day &gt; 29)):</t>
+  </si>
+  <si>
+    <t>elif (month in [ 4, 6, 9, 11]) and ((day &lt; 1) or (day &gt; 30)):</t>
+  </si>
+  <si>
+    <t>print "Yeah!"</t>
+  </si>
+  <si>
+    <t>*embed another "if" function for leap years</t>
+  </si>
+  <si>
+    <t>same for month, life path (perhaps create function for this calculation based on the year if function below to cover while loop for various iterations)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -879,13 +948,32 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -948,7 +1036,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -966,16 +1054,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1355,280 +1446,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H59"/>
+  <dimension ref="A2:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H29" sqref="A2:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="8" width="3.83203125" customWidth="1"/>
+    <col min="12" max="17" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="11" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="O2" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="11" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="O3" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="C5" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="D6" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="O5" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="P6" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="O7" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="D9" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="P8" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="E10" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="O10" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="E12" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="P11" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="E13" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="O12" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="F14" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="P13" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="E15" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="F16" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="O15" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="G17" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="P16" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="F18" t="s">
+      <c r="H17" s="11"/>
+      <c r="O17" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="F19" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="P18" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="G20" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="O19" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="F21" t="s">
+      <c r="H20" s="11"/>
+      <c r="P20" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="G22" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="O21" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="F23" t="s">
+      <c r="H22" s="11"/>
+      <c r="P22" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="G24" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="G25" t="s">
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="H26" t="s">
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="G27" t="s">
+    <row r="27" spans="1:19">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="H28" t="s">
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="H29" t="s">
+    <row r="29" spans="1:19">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
+    <row r="31" spans="1:19">
+      <c r="A31" s="11" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" t="s">
+      <c r="B31" s="11"/>
+      <c r="L31" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:14">
+      <c r="A33" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" t="s">
+      <c r="B33" s="11"/>
+      <c r="L33" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="M34" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="L35" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="11" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" t="s">
+      <c r="B36" s="11"/>
+      <c r="M36" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:14">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
       <c r="C38" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" t="s">
+      <c r="L38" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="M39" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
       <c r="C40" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="N40" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
       <c r="C41" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="N41" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="M42" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="11" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="B44" t="s">
+      <c r="B43" s="11"/>
+      <c r="N43" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="N44" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
       <c r="C45" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" t="s">
+      <c r="N45" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:14">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
       <c r="C47" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="B48" t="s">
+    <row r="48" spans="1:14">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="L48" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
       <c r="C49" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:14">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
       <c r="C50" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="L50" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="M51" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="11" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="B52" s="11"/>
+      <c r="L52" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="M53" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="11" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="B55" t="s">
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="L55" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
       <c r="C56" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" t="s">
+      <c r="M56" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="N57" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
       <c r="C58" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="N58" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
       <c r="C59" t="s">
         <v>253</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="N60" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="N61" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="N62" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="M63" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="N64" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="14:14">
+      <c r="N65" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14">
+      <c r="N66" s="13" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1835,268 +2338,268 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
     </row>
     <row r="41" spans="1:17" ht="48" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B41:Q41"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="B27:Q27"/>
     <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B41:Q41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2311,208 +2814,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="29" spans="1:17" ht="44" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2553,24 +3056,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -2744,208 +3247,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2987,24 +3490,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3045,602 +3548,613 @@
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
     </row>
     <row r="59" spans="1:17" ht="32" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B41:Q41"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="B59:Q59"/>
+    <mergeCell ref="B61:Q61"/>
+    <mergeCell ref="B63:Q63"/>
+    <mergeCell ref="B47:Q47"/>
+    <mergeCell ref="B49:Q49"/>
+    <mergeCell ref="B51:Q51"/>
+    <mergeCell ref="B53:Q53"/>
+    <mergeCell ref="B55:Q55"/>
+    <mergeCell ref="B57:Q57"/>
     <mergeCell ref="B45:Q45"/>
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="B27:Q27"/>
@@ -3657,17 +4171,6 @@
     <mergeCell ref="B35:Q35"/>
     <mergeCell ref="B37:Q37"/>
     <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B41:Q41"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="B59:Q59"/>
-    <mergeCell ref="B61:Q61"/>
-    <mergeCell ref="B63:Q63"/>
-    <mergeCell ref="B47:Q47"/>
-    <mergeCell ref="B49:Q49"/>
-    <mergeCell ref="B51:Q51"/>
-    <mergeCell ref="B53:Q53"/>
-    <mergeCell ref="B55:Q55"/>
-    <mergeCell ref="B57:Q57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3762,347 +4265,353 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>1</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
+      <c r="A18" s="7"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="10">
+      <c r="A21" s="7">
         <v>2</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
+      <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10"/>
+      <c r="A24" s="7"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="10">
+      <c r="A27" s="7">
         <v>3</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="10"/>
+      <c r="A28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <v>4</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="10"/>
+      <c r="A32" s="7"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10"/>
+      <c r="A34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10"/>
+      <c r="A36" s="7"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="10">
+      <c r="A39" s="7">
         <v>5</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="10"/>
+      <c r="A40" s="7"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1">
-      <c r="A43" s="10">
+      <c r="A43" s="7">
         <v>6</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="10"/>
+      <c r="A44" s="7"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1">
-      <c r="A47" s="10">
+      <c r="A47" s="7">
         <v>7</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="10"/>
+      <c r="A48" s="7"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="10"/>
+      <c r="A50" s="7"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="10"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="53" spans="1:4" ht="32" customHeight="1">
-      <c r="A53" s="10">
+      <c r="A53" s="7">
         <v>8</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="10"/>
+      <c r="A54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="57" spans="1:4" ht="31" customHeight="1">
-      <c r="A57" s="10">
+      <c r="A57" s="7">
         <v>9</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="10"/>
+      <c r="A58" s="7"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="10"/>
-      <c r="B59" s="7" t="s">
+      <c r="A59" s="7"/>
+      <c r="B59" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="10"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="9"/>
-      <c r="B65" s="7" t="s">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1">
-      <c r="A67" s="9"/>
-      <c r="B67" s="8" t="s">
+      <c r="A67" s="8"/>
+      <c r="B67" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="9"/>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
     </row>
     <row r="71" spans="1:4" ht="29" customHeight="1">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="31" customHeight="1">
-      <c r="A73" s="9"/>
-      <c r="B73" s="8" t="s">
+      <c r="A73" s="8"/>
+      <c r="B73" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="9"/>
-      <c r="B75" s="7" t="s">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="A71:A75"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
@@ -4119,22 +4628,16 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4203,268 +4706,268 @@
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="17" spans="1:17" ht="31" customHeight="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="23" spans="1:17" ht="44" customHeight="1">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="25" spans="1:17" ht="44" customHeight="1">
       <c r="A25" s="4">
         <v>7</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="27" spans="1:17" ht="45" customHeight="1">
       <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1">
       <c r="A29" s="4">
         <v>9</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
     </row>
     <row r="33" spans="1:17" ht="48" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B33:Q33"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B13:Q13"/>
     <mergeCell ref="B15:Q15"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B33:Q33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4493,24 +4996,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -4593,208 +5096,208 @@
       <c r="A18" s="4">
         <v>0</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1">
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="4">
         <v>7</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
     </row>
     <row r="34" spans="1:17" ht="48" customHeight="1">
       <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4836,24 +5339,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -4909,208 +5412,208 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="31" customHeight="1">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="25" spans="1:17" ht="45" customHeight="1">
       <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="27" spans="1:17" ht="33" customHeight="1">
       <c r="A27" s="4">
         <v>7</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5327,644 +5830,665 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>1</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="10"/>
+      <c r="A21" s="7"/>
     </row>
     <row r="22" spans="1:17" ht="29" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
     </row>
     <row r="24" spans="1:17" ht="29" customHeight="1">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>2</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="10"/>
+      <c r="A25" s="7"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <v>3</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="10"/>
+      <c r="A29" s="7"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="10"/>
+      <c r="A31" s="7"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="10"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
-      <c r="A34" s="10">
+      <c r="A34" s="7">
         <v>4</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="10"/>
+      <c r="A35" s="7"/>
     </row>
     <row r="36" spans="1:17" ht="29" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
-      <c r="A38" s="10">
+      <c r="A38" s="7">
         <v>5</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="10"/>
+      <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="10">
+      <c r="A42" s="7">
         <v>6</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="10"/>
+      <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="10"/>
+      <c r="A45" s="7"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="10"/>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
     </row>
     <row r="48" spans="1:17" ht="30" customHeight="1">
-      <c r="A48" s="10">
+      <c r="A48" s="7">
         <v>7</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="10"/>
+      <c r="A49" s="7"/>
     </row>
     <row r="50" spans="1:17" ht="29" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
     </row>
     <row r="52" spans="1:17" ht="46" customHeight="1">
       <c r="A52" s="4">
         <v>8</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="10">
+      <c r="A54" s="7">
         <v>9</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="10"/>
+      <c r="A55" s="7"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="10"/>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="10"/>
+      <c r="A57" s="7"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="10"/>
-      <c r="B58" s="7" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="9"/>
-      <c r="B62" s="7" t="s">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="9"/>
-      <c r="B64" s="7" t="s">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="9"/>
-      <c r="B66" s="7" t="s">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
     </row>
     <row r="70" spans="1:17" ht="31" customHeight="1">
-      <c r="A70" s="9"/>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="8"/>
+      <c r="B70" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="9"/>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B68:Q68"/>
+    <mergeCell ref="B70:Q70"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="B60:Q60"/>
+    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="B64:Q64"/>
+    <mergeCell ref="B66:Q66"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="B48:Q48"/>
+    <mergeCell ref="B50:Q50"/>
+    <mergeCell ref="B52:Q52"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="A68:A72"/>
@@ -5981,27 +6505,6 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="B46:Q46"/>
-    <mergeCell ref="B48:Q48"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="B52:Q52"/>
-    <mergeCell ref="B68:Q68"/>
-    <mergeCell ref="B70:Q70"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="B60:Q60"/>
-    <mergeCell ref="B62:Q62"/>
-    <mergeCell ref="B64:Q64"/>
-    <mergeCell ref="B66:Q66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6141,268 +6644,268 @@
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
     </row>
     <row r="32" spans="1:17" ht="29" customHeight="1">
       <c r="A32" s="4">
         <v>8</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
     </row>
     <row r="34" spans="1:17" ht="46" customHeight="1">
       <c r="A34" s="4">
         <v>9</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
     </row>
     <row r="36" spans="1:17" ht="46" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
     </row>
     <row r="38" spans="1:17" ht="48" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
     <mergeCell ref="B28:Q28"/>
     <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B20:Q20"/>
     <mergeCell ref="B22:Q22"/>
     <mergeCell ref="B24:Q24"/>
     <mergeCell ref="B26:Q26"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="3380" windowWidth="25600" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="7000" yWindow="3380" windowWidth="25600" windowHeight="12960" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Pseudocode" sheetId="16" r:id="rId1"/>
@@ -1054,19 +1054,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1448,689 +1448,689 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="J42" workbookViewId="0">
       <selection activeCell="H29" sqref="A2:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="8" width="3.83203125" customWidth="1"/>
-    <col min="12" max="17" width="10.83203125" style="13"/>
+    <col min="12" max="17" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="O2" s="13" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="O2" s="9" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="O3" s="13" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="O3" s="9" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="O5" s="13" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="O5" s="9" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="P6" s="13" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="P6" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="O7" s="13" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="O7" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="P8" s="13" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="P8" s="9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="O10" s="13" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="O10" s="9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="P11" s="13" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="P11" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="O12" s="13" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="O12" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="P13" s="13" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="P13" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="O15" s="13" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="O15" s="9" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="P16" s="13" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="P16" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="O17" s="13" t="s">
+      <c r="H17" s="7"/>
+      <c r="O17" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="S17" s="12" t="s">
+      <c r="S17" s="8" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="P18" s="13" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="P18" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="O19" s="13" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="O19" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="P20" s="13" t="s">
+      <c r="H20" s="7"/>
+      <c r="P20" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="O21" s="13" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="O21" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="P22" s="13" t="s">
+      <c r="H22" s="7"/>
+      <c r="P22" s="9" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="L31" s="13" t="s">
+      <c r="B31" s="7"/>
+      <c r="L31" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="O31" s="12" t="s">
+      <c r="O31" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="L33" s="13" t="s">
+      <c r="B33" s="7"/>
+      <c r="L33" s="9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="L35" s="13" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="L35" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="M36" s="13" t="s">
+      <c r="B36" s="7"/>
+      <c r="M36" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
       <c r="C38" t="s">
         <v>258</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M39" s="13" t="s">
+      <c r="M39" s="9" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" t="s">
         <v>256</v>
       </c>
-      <c r="N40" s="13" t="s">
+      <c r="N40" s="9" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
       <c r="C41" t="s">
         <v>253</v>
       </c>
-      <c r="N41" s="13" t="s">
+      <c r="N41" s="9" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="M42" s="13" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="M42" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="N43" s="13" t="s">
+      <c r="B43" s="7"/>
+      <c r="N43" s="9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="N44" s="13" t="s">
+      <c r="N44" s="9" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
       <c r="C45" t="s">
         <v>260</v>
       </c>
-      <c r="N45" s="13" t="s">
+      <c r="N45" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
       <c r="C47" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="L48" s="13" t="s">
+      <c r="L48" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
       <c r="C49" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
       <c r="C50" t="s">
         <v>253</v>
       </c>
-      <c r="L50" s="13" t="s">
+      <c r="L50" s="9" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="M51" s="13" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="M51" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="L52" s="13" t="s">
+      <c r="B52" s="7"/>
+      <c r="L52" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="M53" s="13" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="M53" s="9" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B54" s="11"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="L55" s="13" t="s">
+      <c r="L55" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
       <c r="C56" t="s">
         <v>267</v>
       </c>
-      <c r="M56" s="13" t="s">
+      <c r="M56" s="9" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="N57" s="13" t="s">
+      <c r="N57" s="9" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
       <c r="C58" t="s">
         <v>268</v>
       </c>
-      <c r="N58" s="13" t="s">
+      <c r="N58" s="9" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
       <c r="C59" t="s">
         <v>253</v>
       </c>
-      <c r="M59" s="13" t="s">
+      <c r="M59" s="9" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="N60" s="13" t="s">
+      <c r="N60" s="9" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="N61" s="13" t="s">
+      <c r="N61" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="N62" s="13" t="s">
+      <c r="N62" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="M63" s="13" t="s">
+      <c r="M63" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="N64" s="13" t="s">
+      <c r="N64" s="9" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="65" spans="14:14">
-      <c r="N65" s="13" t="s">
+      <c r="N65" s="9" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="66" spans="14:14">
-      <c r="N66" s="13" t="s">
+      <c r="N66" s="9" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2338,268 +2338,268 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
     </row>
     <row r="41" spans="1:17" ht="48" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B41:Q41"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="B27:Q27"/>
     <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B41:Q41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2814,208 +2814,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="29" spans="1:17" ht="44" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3056,24 +3056,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3247,208 +3247,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3490,24 +3490,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3548,602 +3548,617 @@
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
     </row>
     <row r="59" spans="1:17" ht="32" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B41:Q41"/>
     <mergeCell ref="B43:Q43"/>
     <mergeCell ref="B59:Q59"/>
@@ -4156,21 +4171,6 @@
     <mergeCell ref="B55:Q55"/>
     <mergeCell ref="B57:Q57"/>
     <mergeCell ref="B45:Q45"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="B13:Q13"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B39:Q39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4265,353 +4265,347 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7">
+      <c r="A15" s="13">
         <v>1</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
+      <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
+      <c r="A18" s="13"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="7">
+      <c r="A21" s="13">
         <v>2</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
+      <c r="A22" s="13"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7"/>
+      <c r="A24" s="13"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7">
+      <c r="A27" s="13">
         <v>3</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
+      <c r="A28" s="13"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7">
+      <c r="A31" s="13">
         <v>4</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="7"/>
+      <c r="A32" s="13"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="7"/>
+      <c r="A34" s="13"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="7"/>
+      <c r="A36" s="13"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="7">
+      <c r="A39" s="13">
         <v>5</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="7"/>
+      <c r="A40" s="13"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1">
-      <c r="A43" s="7">
+      <c r="A43" s="13">
         <v>6</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="7"/>
+      <c r="A44" s="13"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1">
-      <c r="A47" s="7">
+      <c r="A47" s="13">
         <v>7</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="7"/>
+      <c r="A48" s="13"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="7"/>
+      <c r="A50" s="13"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="7"/>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="53" spans="1:4" ht="32" customHeight="1">
-      <c r="A53" s="7">
+      <c r="A53" s="13">
         <v>8</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="7"/>
+      <c r="A54" s="13"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="57" spans="1:4" ht="31" customHeight="1">
-      <c r="A57" s="7">
+      <c r="A57" s="13">
         <v>9</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="7"/>
+      <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="7"/>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="7"/>
+      <c r="A60" s="13"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="7"/>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
+      <c r="A64" s="12"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="12"/>
+      <c r="B65" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
+      <c r="A66" s="12"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1">
-      <c r="A67" s="8"/>
-      <c r="B67" s="10" t="s">
+      <c r="A67" s="12"/>
+      <c r="B67" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="8"/>
+      <c r="A68" s="12"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9" t="s">
+      <c r="A69" s="12"/>
+      <c r="B69" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="71" spans="1:4" ht="29" customHeight="1">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="8"/>
+      <c r="A72" s="12"/>
     </row>
     <row r="73" spans="1:4" ht="31" customHeight="1">
-      <c r="A73" s="8"/>
-      <c r="B73" s="10" t="s">
+      <c r="A73" s="12"/>
+      <c r="B73" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="8"/>
+      <c r="A74" s="12"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="8"/>
-      <c r="B75" s="9" t="s">
+      <c r="A75" s="12"/>
+      <c r="B75" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A63:A69"/>
     <mergeCell ref="A71:A75"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
@@ -4628,16 +4622,22 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B73:D73"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4653,7 +4653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -4706,268 +4706,268 @@
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="17" spans="1:17" ht="31" customHeight="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="23" spans="1:17" ht="44" customHeight="1">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="25" spans="1:17" ht="44" customHeight="1">
       <c r="A25" s="4">
         <v>7</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="27" spans="1:17" ht="45" customHeight="1">
       <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1">
       <c r="A29" s="4">
         <v>9</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="33" spans="1:17" ht="48" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B33:Q33"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B13:Q13"/>
     <mergeCell ref="B15:Q15"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B33:Q33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4983,7 +4983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
@@ -4996,24 +4996,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5096,208 +5096,208 @@
       <c r="A18" s="4">
         <v>0</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1">
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="4">
         <v>7</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
     </row>
     <row r="34" spans="1:17" ht="48" customHeight="1">
       <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5326,7 +5326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -5335,28 +5335,28 @@
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="45" customHeight="1">
+    <row r="2" spans="1:17">
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5412,208 +5412,208 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
     </row>
     <row r="21" spans="1:17" ht="31" customHeight="1">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="25" spans="1:17" ht="45" customHeight="1">
       <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="27" spans="1:17" ht="33" customHeight="1">
       <c r="A27" s="4">
         <v>7</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5830,665 +5830,644 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
-      <c r="A20" s="7">
+      <c r="A20" s="13">
         <v>1</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="7"/>
+      <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:17" ht="29" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
     </row>
     <row r="24" spans="1:17" ht="29" customHeight="1">
-      <c r="A24" s="7">
+      <c r="A24" s="13">
         <v>2</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="7"/>
+      <c r="A25" s="13"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="7">
+      <c r="A28" s="13">
         <v>3</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="7"/>
+      <c r="A29" s="13"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="7"/>
+      <c r="A31" s="13"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
-      <c r="A34" s="7">
+      <c r="A34" s="13">
         <v>4</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="7"/>
+      <c r="A35" s="13"/>
     </row>
     <row r="36" spans="1:17" ht="29" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
-      <c r="A38" s="7">
+      <c r="A38" s="13">
         <v>5</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="7"/>
+      <c r="A39" s="13"/>
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="7">
+      <c r="A42" s="13">
         <v>6</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="7"/>
+      <c r="A43" s="13"/>
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="7"/>
+      <c r="A45" s="13"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="7"/>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
     </row>
     <row r="48" spans="1:17" ht="30" customHeight="1">
-      <c r="A48" s="7">
+      <c r="A48" s="13">
         <v>7</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="7"/>
+      <c r="A49" s="13"/>
     </row>
     <row r="50" spans="1:17" ht="29" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
     </row>
     <row r="52" spans="1:17" ht="46" customHeight="1">
       <c r="A52" s="4">
         <v>8</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="7">
+      <c r="A54" s="13">
         <v>9</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="7"/>
+      <c r="A55" s="13"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="7"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="13"/>
+      <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="7"/>
+      <c r="A57" s="13"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="7"/>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="8"/>
+      <c r="A61" s="12"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="12"/>
+      <c r="B62" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="8"/>
+      <c r="A63" s="12"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="12"/>
+      <c r="B64" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="8"/>
+      <c r="A65" s="12"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9" t="s">
+      <c r="A66" s="12"/>
+      <c r="B66" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="8"/>
+      <c r="A69" s="12"/>
     </row>
     <row r="70" spans="1:17" ht="31" customHeight="1">
-      <c r="A70" s="8"/>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="12"/>
+      <c r="B70" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="8"/>
+      <c r="A71" s="12"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B68:Q68"/>
-    <mergeCell ref="B70:Q70"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="B60:Q60"/>
-    <mergeCell ref="B62:Q62"/>
-    <mergeCell ref="B64:Q64"/>
-    <mergeCell ref="B66:Q66"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="B46:Q46"/>
-    <mergeCell ref="B48:Q48"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="B52:Q52"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="A68:A72"/>
@@ -6505,6 +6484,27 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="B48:Q48"/>
+    <mergeCell ref="B50:Q50"/>
+    <mergeCell ref="B52:Q52"/>
+    <mergeCell ref="B68:Q68"/>
+    <mergeCell ref="B70:Q70"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="B60:Q60"/>
+    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="B64:Q64"/>
+    <mergeCell ref="B66:Q66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6644,268 +6644,268 @@
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
     </row>
     <row r="32" spans="1:17" ht="29" customHeight="1">
       <c r="A32" s="4">
         <v>8</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
     </row>
     <row r="34" spans="1:17" ht="46" customHeight="1">
       <c r="A34" s="4">
         <v>9</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
     </row>
     <row r="36" spans="1:17" ht="46" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
     </row>
     <row r="38" spans="1:17" ht="48" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
     <mergeCell ref="B28:Q28"/>
     <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B20:Q20"/>
     <mergeCell ref="B22:Q22"/>
     <mergeCell ref="B24:Q24"/>
     <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="3380" windowWidth="25600" windowHeight="12960" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="7000" yWindow="3380" windowWidth="25600" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pseudocode" sheetId="16" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="298">
   <si>
     <t>A</t>
   </si>
@@ -916,6 +916,15 @@
   </si>
   <si>
     <t>same for month, life path (perhaps create function for this calculation based on the year if function below to cover while loop for various iterations)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>using ord() function:</t>
+  </si>
+  <si>
+    <t>((ord(character) - ord("a")) % 9) + 1</t>
   </si>
 </sst>
 </file>
@@ -985,7 +994,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1035,8 +1044,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1057,18 +1080,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1093,6 +1119,13 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1117,6 +1150,13 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1446,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S66"/>
+  <dimension ref="A2:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="J42" workbookViewId="0">
-      <selection activeCell="H29" sqref="A2:H29"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2124,14 +2164,363 @@
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="14:14">
+    <row r="65" spans="9:17">
       <c r="N65" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="14:14">
+    <row r="66" spans="9:17">
       <c r="N66" s="9" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="9:17">
+      <c r="I69" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="9:17">
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>2</v>
+      </c>
+      <c r="K70" s="2">
+        <v>3</v>
+      </c>
+      <c r="L70" s="2">
+        <v>4</v>
+      </c>
+      <c r="M70" s="2">
+        <v>5</v>
+      </c>
+      <c r="N70" s="2">
+        <v>6</v>
+      </c>
+      <c r="O70" s="2">
+        <v>7</v>
+      </c>
+      <c r="P70" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="9:17">
+      <c r="I71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="9:17">
+      <c r="I72" s="14">
+        <v>97</v>
+      </c>
+      <c r="J72" s="14">
+        <f>I72+1</f>
+        <v>98</v>
+      </c>
+      <c r="K72" s="14">
+        <f t="shared" ref="K72:Q76" si="0">J72+1</f>
+        <v>99</v>
+      </c>
+      <c r="L72" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M72" s="14">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="N72" s="14">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="O72" s="14">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="P72" s="14">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="Q72" s="14">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="9:17">
+      <c r="I73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="9:17">
+      <c r="I74" s="14">
+        <f>Q72+1</f>
+        <v>106</v>
+      </c>
+      <c r="J74" s="14">
+        <f>I74+1</f>
+        <v>107</v>
+      </c>
+      <c r="K74" s="14">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="L74" s="14">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="M74" s="14">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="N74" s="14">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="O74" s="14">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="P74" s="14">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="Q74" s="14">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="9:17">
+      <c r="I75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="9:17">
+      <c r="I76" s="14">
+        <f>Q74+1</f>
+        <v>115</v>
+      </c>
+      <c r="J76" s="14">
+        <f>I76+1</f>
+        <v>116</v>
+      </c>
+      <c r="K76" s="14">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="L76" s="14">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="M76" s="14">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="N76" s="14">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="O76" s="14">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="P76" s="14">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="Q76" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="9:17">
+      <c r="I78">
+        <f>MOD((I72-$I$72),$Q$76)+1</f>
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ref="J78:Q78" si="1">MOD((J72-$I$72),$Q$76)+1</f>
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="9:17">
+      <c r="I79">
+        <f>MOD((I74-$I$72),$Q$76)+1</f>
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ref="J79:Q79" si="2">MOD((J74-$I$72),$Q$76)+1</f>
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="9:17">
+      <c r="I80">
+        <f>MOD((I76-$I$72),$Q$76)+1</f>
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ref="J80:Q80" si="3">MOD((J76-$I$72),$Q$76)+1</f>
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q80"/>
+    </row>
+    <row r="82" spans="9:9">
+      <c r="I82" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2338,268 +2727,268 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
     </row>
     <row r="41" spans="1:17" ht="48" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B41:Q41"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="B27:Q27"/>
     <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B41:Q41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2814,208 +3203,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="44" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3056,24 +3445,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3247,208 +3636,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3490,24 +3879,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3548,602 +3937,616 @@
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
     </row>
     <row r="59" spans="1:17" ht="32" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B61:Q61"/>
+    <mergeCell ref="B63:Q63"/>
+    <mergeCell ref="B47:Q47"/>
+    <mergeCell ref="B49:Q49"/>
+    <mergeCell ref="B51:Q51"/>
+    <mergeCell ref="B53:Q53"/>
+    <mergeCell ref="B55:Q55"/>
+    <mergeCell ref="B57:Q57"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B41:Q41"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="B59:Q59"/>
+    <mergeCell ref="B45:Q45"/>
     <mergeCell ref="B35:Q35"/>
     <mergeCell ref="B37:Q37"/>
     <mergeCell ref="B39:Q39"/>
@@ -4157,20 +4560,6 @@
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="B27:Q27"/>
     <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B41:Q41"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="B59:Q59"/>
-    <mergeCell ref="B61:Q61"/>
-    <mergeCell ref="B63:Q63"/>
-    <mergeCell ref="B47:Q47"/>
-    <mergeCell ref="B49:Q49"/>
-    <mergeCell ref="B51:Q51"/>
-    <mergeCell ref="B53:Q53"/>
-    <mergeCell ref="B55:Q55"/>
-    <mergeCell ref="B57:Q57"/>
-    <mergeCell ref="B45:Q45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4265,347 +4654,353 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="13">
+      <c r="A15" s="10">
         <v>1</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="13"/>
+      <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="13"/>
+      <c r="A18" s="10"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="13">
+      <c r="A21" s="10">
         <v>2</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13"/>
+      <c r="A22" s="10"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="13"/>
+      <c r="A24" s="10"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="13">
+      <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="13"/>
+      <c r="A28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13">
+      <c r="A31" s="10">
         <v>4</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="13"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="13"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="13"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="13"/>
+      <c r="A36" s="10"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="13">
+      <c r="A39" s="10">
         <v>5</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="13"/>
+      <c r="A40" s="10"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1">
-      <c r="A43" s="13">
+      <c r="A43" s="10">
         <v>6</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="13"/>
+      <c r="A44" s="10"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1">
-      <c r="A45" s="13"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1">
-      <c r="A47" s="13">
+      <c r="A47" s="10">
         <v>7</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="13"/>
+      <c r="A48" s="10"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="13"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="13"/>
-      <c r="B51" s="10" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="32" customHeight="1">
-      <c r="A53" s="13">
+      <c r="A53" s="10">
         <v>8</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="13"/>
+      <c r="A54" s="10"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1">
-      <c r="A55" s="13"/>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="10"/>
+      <c r="B55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="57" spans="1:4" ht="31" customHeight="1">
-      <c r="A57" s="13">
+      <c r="A57" s="10">
         <v>9</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="13"/>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="13"/>
-      <c r="B59" s="10" t="s">
+      <c r="A59" s="10"/>
+      <c r="B59" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="13"/>
+      <c r="A60" s="10"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="13"/>
-      <c r="B61" s="10" t="s">
+      <c r="A61" s="10"/>
+      <c r="B61" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="12"/>
+      <c r="A64" s="11"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="12"/>
-      <c r="B65" s="10" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="12"/>
+      <c r="A66" s="11"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1">
-      <c r="A67" s="12"/>
-      <c r="B67" s="11" t="s">
+      <c r="A67" s="11"/>
+      <c r="B67" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="12"/>
+      <c r="A68" s="11"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="12"/>
-      <c r="B69" s="10" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="71" spans="1:4" ht="29" customHeight="1">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="12"/>
+      <c r="A72" s="11"/>
     </row>
     <row r="73" spans="1:4" ht="31" customHeight="1">
-      <c r="A73" s="12"/>
-      <c r="B73" s="11" t="s">
+      <c r="A73" s="11"/>
+      <c r="B73" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="12"/>
+      <c r="A74" s="11"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="12"/>
-      <c r="B75" s="10" t="s">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="A71:A75"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
@@ -4622,22 +5017,16 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4706,268 +5095,268 @@
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="31" customHeight="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="44" customHeight="1">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="44" customHeight="1">
       <c r="A25" s="4">
         <v>7</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="45" customHeight="1">
       <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1">
       <c r="A29" s="4">
         <v>9</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17" ht="48" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B33:Q33"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B13:Q13"/>
     <mergeCell ref="B15:Q15"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B33:Q33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4984,7 +5373,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="B18" sqref="B18:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4996,24 +5385,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5096,208 +5485,208 @@
       <c r="A18" s="4">
         <v>0</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1">
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="4">
         <v>7</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
     </row>
     <row r="34" spans="1:17" ht="48" customHeight="1">
       <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5326,7 +5715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -5339,24 +5728,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5412,208 +5801,208 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="21" spans="1:17" ht="31" customHeight="1">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="45" customHeight="1">
       <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="33" customHeight="1">
       <c r="A27" s="4">
         <v>7</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5663,7 +6052,7 @@
   <dimension ref="A2:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J10"/>
+      <selection activeCell="B7" sqref="B7:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5830,644 +6219,665 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
-      <c r="A20" s="13">
+      <c r="A20" s="10">
         <v>1</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="13"/>
+      <c r="A21" s="10"/>
     </row>
     <row r="22" spans="1:17" ht="29" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="24" spans="1:17" ht="29" customHeight="1">
-      <c r="A24" s="13">
+      <c r="A24" s="10">
         <v>2</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="13"/>
+      <c r="A25" s="10"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="13"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="13">
+      <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="13"/>
+      <c r="A29" s="10"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="13"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="13"/>
+      <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="13"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
-      <c r="A34" s="13">
+      <c r="A34" s="10">
         <v>4</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="13"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="36" spans="1:17" ht="29" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
-      <c r="A38" s="13">
+      <c r="A38" s="10">
         <v>5</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="13"/>
+      <c r="A39" s="10"/>
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="10"/>
+      <c r="B40" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="13">
+      <c r="A42" s="10">
         <v>6</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="13"/>
+      <c r="A43" s="10"/>
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="10"/>
+      <c r="B44" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="13"/>
+      <c r="A45" s="10"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="13"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
     </row>
     <row r="48" spans="1:17" ht="30" customHeight="1">
-      <c r="A48" s="13">
+      <c r="A48" s="10">
         <v>7</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="13"/>
+      <c r="A49" s="10"/>
     </row>
     <row r="50" spans="1:17" ht="29" customHeight="1">
-      <c r="A50" s="13"/>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
     </row>
     <row r="52" spans="1:17" ht="46" customHeight="1">
       <c r="A52" s="4">
         <v>8</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="13">
+      <c r="A54" s="10">
         <v>9</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="13"/>
+      <c r="A55" s="10"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="13"/>
-      <c r="B56" s="10" t="s">
+      <c r="A56" s="10"/>
+      <c r="B56" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="13"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="13"/>
-      <c r="B58" s="10" t="s">
+      <c r="A58" s="10"/>
+      <c r="B58" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="12"/>
+      <c r="A61" s="11"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="12"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="12"/>
+      <c r="A63" s="11"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="12"/>
-      <c r="B64" s="10" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="12"/>
+      <c r="A65" s="11"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="12"/>
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="12"/>
+      <c r="A69" s="11"/>
     </row>
     <row r="70" spans="1:17" ht="31" customHeight="1">
-      <c r="A70" s="12"/>
-      <c r="B70" s="11" t="s">
+      <c r="A70" s="11"/>
+      <c r="B70" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="12"/>
+      <c r="A71" s="11"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="12"/>
-      <c r="B72" s="10" t="s">
+      <c r="A72" s="11"/>
+      <c r="B72" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B68:Q68"/>
+    <mergeCell ref="B70:Q70"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="B60:Q60"/>
+    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="B64:Q64"/>
+    <mergeCell ref="B66:Q66"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="B48:Q48"/>
+    <mergeCell ref="B50:Q50"/>
+    <mergeCell ref="B52:Q52"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="A68:A72"/>
@@ -6484,27 +6894,6 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="B46:Q46"/>
-    <mergeCell ref="B48:Q48"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="B52:Q52"/>
-    <mergeCell ref="B68:Q68"/>
-    <mergeCell ref="B70:Q70"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="B60:Q60"/>
-    <mergeCell ref="B62:Q62"/>
-    <mergeCell ref="B64:Q64"/>
-    <mergeCell ref="B66:Q66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6644,268 +7033,268 @@
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
     </row>
     <row r="32" spans="1:17" ht="29" customHeight="1">
       <c r="A32" s="4">
         <v>8</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
     </row>
     <row r="34" spans="1:17" ht="46" customHeight="1">
       <c r="A34" s="4">
         <v>9</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
     </row>
     <row r="36" spans="1:17" ht="46" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
     </row>
     <row r="38" spans="1:17" ht="48" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
     <mergeCell ref="B28:Q28"/>
     <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B20:Q20"/>
     <mergeCell ref="B22:Q22"/>
     <mergeCell ref="B24:Q24"/>
     <mergeCell ref="B26:Q26"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="3380" windowWidth="25600" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="7000" yWindow="3380" windowWidth="25600" windowHeight="12960" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Pseudocode" sheetId="16" r:id="rId1"/>
@@ -1080,18 +1080,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -1488,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -2238,38 +2238,38 @@
       </c>
     </row>
     <row r="72" spans="9:17">
-      <c r="I72" s="14">
+      <c r="I72" s="10">
         <v>97</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="10">
         <f>I72+1</f>
         <v>98</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K72" s="10">
         <f t="shared" ref="K72:Q76" si="0">J72+1</f>
         <v>99</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L72" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M72" s="10">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="N72" s="14">
+      <c r="N72" s="10">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="O72" s="14">
+      <c r="O72" s="10">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="P72" s="14">
+      <c r="P72" s="10">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="Q72" s="14">
+      <c r="Q72" s="10">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -2304,39 +2304,39 @@
       </c>
     </row>
     <row r="74" spans="9:17">
-      <c r="I74" s="14">
+      <c r="I74" s="10">
         <f>Q72+1</f>
         <v>106</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J74" s="10">
         <f>I74+1</f>
         <v>107</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K74" s="10">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="L74" s="14">
+      <c r="L74" s="10">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="M74" s="14">
+      <c r="M74" s="10">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="N74" s="14">
+      <c r="N74" s="10">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="O74" s="14">
+      <c r="O74" s="10">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="P74" s="14">
+      <c r="P74" s="10">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="Q74" s="14">
+      <c r="Q74" s="10">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
@@ -2371,39 +2371,39 @@
       </c>
     </row>
     <row r="76" spans="9:17">
-      <c r="I76" s="14">
+      <c r="I76" s="10">
         <f>Q74+1</f>
         <v>115</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J76" s="10">
         <f>I76+1</f>
         <v>116</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K76" s="10">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="L76" s="14">
+      <c r="L76" s="10">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="M76" s="14">
+      <c r="M76" s="10">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="N76" s="14">
+      <c r="N76" s="10">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O76" s="14">
+      <c r="O76" s="10">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="P76" s="14">
+      <c r="P76" s="10">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="Q76" s="14">
+      <c r="Q76" s="10">
         <v>9</v>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="J80">
-        <f t="shared" ref="J80:Q80" si="3">MOD((J76-$I$72),$Q$76)+1</f>
+        <f t="shared" ref="J80:P80" si="3">MOD((J76-$I$72),$Q$76)+1</f>
         <v>2</v>
       </c>
       <c r="K80">
@@ -2727,268 +2727,268 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
     </row>
     <row r="41" spans="1:17" ht="48" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B41:Q41"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="B27:Q27"/>
     <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B41:Q41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3203,208 +3203,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="44" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3445,24 +3445,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3636,208 +3636,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3879,24 +3879,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3937,610 +3937,605 @@
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
     </row>
     <row r="59" spans="1:17" ht="32" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B61:Q61"/>
-    <mergeCell ref="B63:Q63"/>
-    <mergeCell ref="B47:Q47"/>
-    <mergeCell ref="B49:Q49"/>
-    <mergeCell ref="B51:Q51"/>
-    <mergeCell ref="B53:Q53"/>
-    <mergeCell ref="B55:Q55"/>
-    <mergeCell ref="B57:Q57"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B41:Q41"/>
@@ -4557,9 +4552,14 @@
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B61:Q61"/>
+    <mergeCell ref="B63:Q63"/>
+    <mergeCell ref="B47:Q47"/>
+    <mergeCell ref="B49:Q49"/>
+    <mergeCell ref="B51:Q51"/>
+    <mergeCell ref="B53:Q53"/>
+    <mergeCell ref="B55:Q55"/>
+    <mergeCell ref="B57:Q57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4654,353 +4654,347 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10">
+      <c r="A15" s="14">
         <v>1</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
+      <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
+      <c r="A18" s="14"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="10">
+      <c r="A21" s="14">
         <v>2</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
+      <c r="A22" s="14"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10"/>
+      <c r="A24" s="14"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="10">
+      <c r="A27" s="14">
         <v>3</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="10"/>
+      <c r="A28" s="14"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10">
+      <c r="A31" s="14">
         <v>4</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="10"/>
+      <c r="A32" s="14"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10"/>
+      <c r="A34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10"/>
+      <c r="A36" s="14"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="10">
+      <c r="A39" s="14">
         <v>5</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="10"/>
+      <c r="A40" s="14"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1">
-      <c r="A43" s="10">
+      <c r="A43" s="14">
         <v>6</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="10"/>
+      <c r="A44" s="14"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1">
-      <c r="A47" s="10">
+      <c r="A47" s="14">
         <v>7</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="10"/>
+      <c r="A48" s="14"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="10"/>
+      <c r="A50" s="14"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="10"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="53" spans="1:4" ht="32" customHeight="1">
-      <c r="A53" s="10">
+      <c r="A53" s="14">
         <v>8</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="10"/>
+      <c r="A54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="13" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="57" spans="1:4" ht="31" customHeight="1">
-      <c r="A57" s="10">
+      <c r="A57" s="14">
         <v>9</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="10"/>
+      <c r="A58" s="14"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="10"/>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="10"/>
+      <c r="A60" s="14"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="12" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="11"/>
+      <c r="A64" s="13"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="11"/>
+      <c r="A66" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="13" t="s">
+      <c r="A67" s="13"/>
+      <c r="B67" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="11"/>
+      <c r="A68" s="13"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="71" spans="1:4" ht="29" customHeight="1">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="11"/>
+      <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:4" ht="31" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="13" t="s">
+      <c r="A73" s="13"/>
+      <c r="B73" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="11"/>
+      <c r="A74" s="13"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12" t="s">
+      <c r="A75" s="13"/>
+      <c r="B75" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A63:A69"/>
     <mergeCell ref="A71:A75"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
@@ -5017,16 +5011,22 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B73:D73"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5095,268 +5095,268 @@
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="17" spans="1:17" ht="31" customHeight="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="23" spans="1:17" ht="44" customHeight="1">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="25" spans="1:17" ht="44" customHeight="1">
       <c r="A25" s="4">
         <v>7</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="27" spans="1:17" ht="45" customHeight="1">
       <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1">
       <c r="A29" s="4">
         <v>9</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="48" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B33:Q33"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B13:Q13"/>
     <mergeCell ref="B15:Q15"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B33:Q33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5385,24 +5385,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5485,208 +5485,208 @@
       <c r="A18" s="4">
         <v>0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1">
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="4">
         <v>7</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="34" spans="1:17" ht="48" customHeight="1">
       <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5715,7 +5715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -5728,24 +5728,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5801,208 +5801,208 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="21" spans="1:17" ht="31" customHeight="1">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="25" spans="1:17" ht="45" customHeight="1">
       <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="27" spans="1:17" ht="33" customHeight="1">
       <c r="A27" s="4">
         <v>7</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6051,7 +6051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J10"/>
     </sheetView>
   </sheetViews>
@@ -6219,665 +6219,644 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
-      <c r="A20" s="10">
+      <c r="A20" s="14">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="10"/>
+      <c r="A21" s="14"/>
     </row>
     <row r="22" spans="1:17" ht="29" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="24" spans="1:17" ht="29" customHeight="1">
-      <c r="A24" s="10">
+      <c r="A24" s="14">
         <v>2</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="10"/>
+      <c r="A25" s="14"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="10">
+      <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="10"/>
+      <c r="A29" s="14"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="10"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="10"/>
+      <c r="A31" s="14"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="10"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
-      <c r="A34" s="10">
+      <c r="A34" s="14">
         <v>4</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="10"/>
+      <c r="A35" s="14"/>
     </row>
     <row r="36" spans="1:17" ht="29" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
-      <c r="A38" s="10">
+      <c r="A38" s="14">
         <v>5</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="10"/>
+      <c r="A39" s="14"/>
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="10">
+      <c r="A42" s="14">
         <v>6</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="10"/>
+      <c r="A43" s="14"/>
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="10"/>
+      <c r="A45" s="14"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="10"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
     </row>
     <row r="48" spans="1:17" ht="30" customHeight="1">
-      <c r="A48" s="10">
+      <c r="A48" s="14">
         <v>7</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="10"/>
+      <c r="A49" s="14"/>
     </row>
     <row r="50" spans="1:17" ht="29" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
     </row>
     <row r="52" spans="1:17" ht="46" customHeight="1">
       <c r="A52" s="4">
         <v>8</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="10">
+      <c r="A54" s="14">
         <v>9</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="10"/>
+      <c r="A55" s="14"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="10"/>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="10"/>
+      <c r="A57" s="14"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="10"/>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="11"/>
+      <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="11"/>
+      <c r="A63" s="13"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="11"/>
+      <c r="A65" s="13"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12" t="s">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="11"/>
+      <c r="A69" s="13"/>
     </row>
     <row r="70" spans="1:17" ht="31" customHeight="1">
-      <c r="A70" s="11"/>
-      <c r="B70" s="13" t="s">
+      <c r="A70" s="13"/>
+      <c r="B70" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="11"/>
+      <c r="A71" s="13"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12" t="s">
+      <c r="A72" s="13"/>
+      <c r="B72" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B68:Q68"/>
-    <mergeCell ref="B70:Q70"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="B60:Q60"/>
-    <mergeCell ref="B62:Q62"/>
-    <mergeCell ref="B64:Q64"/>
-    <mergeCell ref="B66:Q66"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="B46:Q46"/>
-    <mergeCell ref="B48:Q48"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="B52:Q52"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="A68:A72"/>
@@ -6894,6 +6873,27 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="B48:Q48"/>
+    <mergeCell ref="B50:Q50"/>
+    <mergeCell ref="B52:Q52"/>
+    <mergeCell ref="B68:Q68"/>
+    <mergeCell ref="B70:Q70"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="B60:Q60"/>
+    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="B64:Q64"/>
+    <mergeCell ref="B66:Q66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7033,268 +7033,268 @@
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="29" customHeight="1">
       <c r="A32" s="4">
         <v>8</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="34" spans="1:17" ht="46" customHeight="1">
       <c r="A34" s="4">
         <v>9</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
     </row>
     <row r="36" spans="1:17" ht="46" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="38" spans="1:17" ht="48" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
     <mergeCell ref="B28:Q28"/>
     <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B20:Q20"/>
     <mergeCell ref="B22:Q22"/>
     <mergeCell ref="B24:Q24"/>
     <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="3380" windowWidth="25600" windowHeight="12960" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="7000" yWindow="3380" windowWidth="25600" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pseudocode" sheetId="16" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1080,6 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1488,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2238,38 +2239,38 @@
       </c>
     </row>
     <row r="72" spans="9:17">
-      <c r="I72" s="10">
+      <c r="I72" s="11">
         <v>97</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J72" s="11">
         <f>I72+1</f>
         <v>98</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K72" s="11">
         <f t="shared" ref="K72:Q76" si="0">J72+1</f>
         <v>99</v>
       </c>
-      <c r="L72" s="10">
+      <c r="L72" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M72" s="10">
+      <c r="M72" s="11">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="N72" s="10">
+      <c r="N72" s="11">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="O72" s="10">
+      <c r="O72" s="11">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="P72" s="10">
+      <c r="P72" s="11">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="Q72" s="10">
+      <c r="Q72" s="11">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -2304,39 +2305,39 @@
       </c>
     </row>
     <row r="74" spans="9:17">
-      <c r="I74" s="10">
+      <c r="I74" s="11">
         <f>Q72+1</f>
         <v>106</v>
       </c>
-      <c r="J74" s="10">
+      <c r="J74" s="11">
         <f>I74+1</f>
         <v>107</v>
       </c>
-      <c r="K74" s="10">
+      <c r="K74" s="11">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="L74" s="10">
+      <c r="L74" s="11">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="M74" s="10">
+      <c r="M74" s="11">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="N74" s="10">
+      <c r="N74" s="11">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="O74" s="10">
+      <c r="O74" s="11">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="P74" s="10">
+      <c r="P74" s="11">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="Q74" s="10">
+      <c r="Q74" s="11">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
@@ -2371,39 +2372,39 @@
       </c>
     </row>
     <row r="76" spans="9:17">
-      <c r="I76" s="10">
+      <c r="I76" s="11">
         <f>Q74+1</f>
         <v>115</v>
       </c>
-      <c r="J76" s="10">
+      <c r="J76" s="11">
         <f>I76+1</f>
         <v>116</v>
       </c>
-      <c r="K76" s="10">
+      <c r="K76" s="11">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="L76" s="10">
+      <c r="L76" s="11">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="M76" s="10">
+      <c r="M76" s="11">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="N76" s="10">
+      <c r="N76" s="11">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O76" s="10">
+      <c r="O76" s="11">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="P76" s="10">
+      <c r="P76" s="11">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="Q76" s="10">
+      <c r="Q76" s="11">
         <v>9</v>
       </c>
     </row>
@@ -2727,254 +2728,254 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
     </row>
     <row r="41" spans="1:17" ht="48" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3203,208 +3204,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="44" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3432,7 +3433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="A39:XFD44"/>
     </sheetView>
   </sheetViews>
@@ -3445,24 +3446,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3636,208 +3637,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3866,8 +3867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3879,24 +3880,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3924,7 +3925,7 @@
       <c r="B8" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3937,599 +3938,599 @@
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
     </row>
     <row r="59" spans="1:17" ht="32" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4654,334 +4655,334 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14">
+      <c r="A15" s="15">
         <v>1</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="14">
+      <c r="A21" s="15">
         <v>2</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14">
+      <c r="A27" s="15">
         <v>3</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
+      <c r="A28" s="15"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="14">
+      <c r="A31" s="15">
         <v>4</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="14"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="14"/>
+      <c r="A34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="14"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="14"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="14">
+      <c r="A39" s="15">
         <v>5</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="14"/>
+      <c r="A40" s="15"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1">
-      <c r="A43" s="14">
+      <c r="A43" s="15">
         <v>6</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="14"/>
+      <c r="A44" s="15"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1">
-      <c r="A47" s="14">
+      <c r="A47" s="15">
         <v>7</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="14"/>
+      <c r="A48" s="15"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="14"/>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="14"/>
+      <c r="A50" s="15"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="14"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="32" customHeight="1">
-      <c r="A53" s="14">
+      <c r="A53" s="15">
         <v>8</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="14"/>
+      <c r="A54" s="15"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1">
-      <c r="A55" s="14"/>
-      <c r="B55" s="12" t="s">
+      <c r="A55" s="15"/>
+      <c r="B55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="57" spans="1:4" ht="31" customHeight="1">
-      <c r="A57" s="14">
+      <c r="A57" s="15">
         <v>9</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="14"/>
+      <c r="A58" s="15"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="14"/>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="15"/>
+      <c r="B59" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="14"/>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="15"/>
+      <c r="B61" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="13"/>
+      <c r="A64" s="14"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="13"/>
-      <c r="B65" s="11" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="13"/>
+      <c r="A66" s="14"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1">
-      <c r="A67" s="13"/>
-      <c r="B67" s="12" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="13"/>
+      <c r="A68" s="14"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="13"/>
-      <c r="B69" s="11" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="71" spans="1:4" ht="29" customHeight="1">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="13"/>
+      <c r="A72" s="14"/>
     </row>
     <row r="73" spans="1:4" ht="31" customHeight="1">
-      <c r="A73" s="13"/>
-      <c r="B73" s="12" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="13"/>
+      <c r="A74" s="14"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="13"/>
-      <c r="B75" s="11" t="s">
+      <c r="A75" s="14"/>
+      <c r="B75" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -5095,254 +5096,254 @@
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="31" customHeight="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="44" customHeight="1">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="44" customHeight="1">
       <c r="A25" s="4">
         <v>7</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="45" customHeight="1">
       <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1">
       <c r="A29" s="4">
         <v>9</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17" ht="48" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5385,24 +5386,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5485,208 +5486,208 @@
       <c r="A18" s="4">
         <v>0</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1">
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="4">
         <v>7</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
     </row>
     <row r="34" spans="1:17" ht="48" customHeight="1">
       <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5715,7 +5716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -5728,24 +5729,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5801,208 +5802,208 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="21" spans="1:17" ht="31" customHeight="1">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="45" customHeight="1">
       <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="33" customHeight="1">
       <c r="A27" s="4">
         <v>7</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6051,8 +6052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6219,641 +6220,641 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
-      <c r="A20" s="14">
+      <c r="A20" s="15">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
     </row>
     <row r="22" spans="1:17" ht="29" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="24" spans="1:17" ht="29" customHeight="1">
-      <c r="A24" s="14">
+      <c r="A24" s="15">
         <v>2</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="14"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="14">
+      <c r="A28" s="15">
         <v>3</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="14"/>
+      <c r="A29" s="15"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="14"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="14"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
-      <c r="A34" s="14">
+      <c r="A34" s="15">
         <v>4</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="14"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" ht="29" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
-      <c r="A38" s="14">
+      <c r="A38" s="15">
         <v>5</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="14">
+      <c r="A42" s="15">
         <v>6</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="14"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="14"/>
+      <c r="A45" s="15"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="14"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
     </row>
     <row r="48" spans="1:17" ht="30" customHeight="1">
-      <c r="A48" s="14">
+      <c r="A48" s="15">
         <v>7</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="14"/>
+      <c r="A49" s="15"/>
     </row>
     <row r="50" spans="1:17" ht="29" customHeight="1">
-      <c r="A50" s="14"/>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
     </row>
     <row r="52" spans="1:17" ht="46" customHeight="1">
       <c r="A52" s="4">
         <v>8</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="14">
+      <c r="A54" s="15">
         <v>9</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="14"/>
+      <c r="A55" s="15"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="14"/>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="15"/>
+      <c r="B56" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="14"/>
+      <c r="A57" s="15"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="14"/>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="15"/>
+      <c r="B58" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="13"/>
+      <c r="A61" s="14"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="13"/>
-      <c r="B62" s="11" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="13"/>
+      <c r="A63" s="14"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="13"/>
-      <c r="B64" s="11" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="13"/>
+      <c r="A65" s="14"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="13"/>
-      <c r="B66" s="11" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="13"/>
+      <c r="A69" s="14"/>
     </row>
     <row r="70" spans="1:17" ht="31" customHeight="1">
-      <c r="A70" s="13"/>
-      <c r="B70" s="12" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="13"/>
+      <c r="A71" s="14"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="13"/>
-      <c r="B72" s="11" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -6909,7 +6910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:XFD49"/>
     </sheetView>
   </sheetViews>
@@ -7033,254 +7034,254 @@
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
     </row>
     <row r="32" spans="1:17" ht="29" customHeight="1">
       <c r="A32" s="4">
         <v>8</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
     </row>
     <row r="34" spans="1:17" ht="46" customHeight="1">
       <c r="A34" s="4">
         <v>9</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
     </row>
     <row r="36" spans="1:17" ht="46" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
     </row>
     <row r="38" spans="1:17" ht="48" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="3380" windowWidth="25600" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="3580" yWindow="920" windowWidth="25600" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pseudocode" sheetId="16" r:id="rId1"/>
@@ -1084,15 +1084,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -2540,7 +2540,7 @@
   <dimension ref="A2:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B41" sqref="B41:Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2728,268 +2728,268 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
     </row>
     <row r="41" spans="1:17" ht="48" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B41:Q41"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="B27:Q27"/>
     <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B41:Q41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3005,7 +3005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B39" sqref="A39:XFD42"/>
     </sheetView>
   </sheetViews>
@@ -3204,208 +3204,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="29" spans="1:17" ht="44" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3434,7 +3434,7 @@
   <dimension ref="A2:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="A39:XFD44"/>
+      <selection activeCell="B37" sqref="B37:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3446,24 +3446,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3637,208 +3637,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3880,24 +3880,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3938,621 +3938,602 @@
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
     </row>
     <row r="59" spans="1:17" ht="32" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B41:Q41"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="B59:Q59"/>
-    <mergeCell ref="B45:Q45"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="B13:Q13"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B61:Q61"/>
     <mergeCell ref="B63:Q63"/>
     <mergeCell ref="B47:Q47"/>
@@ -4561,6 +4542,25 @@
     <mergeCell ref="B53:Q53"/>
     <mergeCell ref="B55:Q55"/>
     <mergeCell ref="B57:Q57"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B41:Q41"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="B59:Q59"/>
+    <mergeCell ref="B45:Q45"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B31:Q31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4655,347 +4655,353 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="15">
+      <c r="A15" s="12">
         <v>1</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="15"/>
+      <c r="A16" s="12"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="15"/>
+      <c r="A18" s="12"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>2</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="15"/>
+      <c r="A22" s="12"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="15"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="15"/>
+      <c r="A24" s="12"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="15"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="15">
+      <c r="A27" s="12">
         <v>3</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="15"/>
+      <c r="A28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="15">
+      <c r="A31" s="12">
         <v>4</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="15"/>
+      <c r="A32" s="12"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="15"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="15"/>
+      <c r="A34" s="12"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="15"/>
+      <c r="A36" s="12"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="15"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="15">
+      <c r="A39" s="12">
         <v>5</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="15"/>
+      <c r="A40" s="12"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1">
-      <c r="A41" s="15"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1">
-      <c r="A43" s="15">
+      <c r="A43" s="12">
         <v>6</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="15"/>
+      <c r="A44" s="12"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1">
-      <c r="A47" s="15">
+      <c r="A47" s="12">
         <v>7</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="15"/>
+      <c r="A48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="15"/>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="15"/>
+      <c r="A50" s="12"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="15"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="32" customHeight="1">
-      <c r="A53" s="15">
+      <c r="A53" s="12">
         <v>8</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="15"/>
+      <c r="A54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1">
-      <c r="A55" s="15"/>
-      <c r="B55" s="13" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="57" spans="1:4" ht="31" customHeight="1">
-      <c r="A57" s="15">
+      <c r="A57" s="12">
         <v>9</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="15"/>
+      <c r="A58" s="12"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="15"/>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="15"/>
+      <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="15"/>
-      <c r="B61" s="12" t="s">
+      <c r="A61" s="12"/>
+      <c r="B61" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="14"/>
+      <c r="A64" s="13"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="14"/>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="13"/>
+      <c r="B65" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="14"/>
+      <c r="A66" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1">
-      <c r="A67" s="14"/>
-      <c r="B67" s="13" t="s">
+      <c r="A67" s="13"/>
+      <c r="B67" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="14"/>
+      <c r="A68" s="13"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="14"/>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="71" spans="1:4" ht="29" customHeight="1">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="14"/>
+      <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:4" ht="31" customHeight="1">
-      <c r="A73" s="14"/>
-      <c r="B73" s="13" t="s">
+      <c r="A73" s="13"/>
+      <c r="B73" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="14"/>
+      <c r="A74" s="13"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="14"/>
-      <c r="B75" s="12" t="s">
+      <c r="A75" s="13"/>
+      <c r="B75" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="A71:A75"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
@@ -5012,22 +5018,16 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5096,268 +5096,268 @@
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="31" customHeight="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="23" spans="1:17" ht="44" customHeight="1">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="25" spans="1:17" ht="44" customHeight="1">
       <c r="A25" s="4">
         <v>7</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="45" customHeight="1">
       <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1">
       <c r="A29" s="4">
         <v>9</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
     </row>
     <row r="33" spans="1:17" ht="48" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B33:Q33"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B13:Q13"/>
     <mergeCell ref="B15:Q15"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B33:Q33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5386,24 +5386,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5486,208 +5486,208 @@
       <c r="A18" s="4">
         <v>0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1">
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="4">
         <v>7</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
     </row>
     <row r="34" spans="1:17" ht="48" customHeight="1">
       <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5729,24 +5729,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5802,208 +5802,208 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
     </row>
     <row r="21" spans="1:17" ht="31" customHeight="1">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="25" spans="1:17" ht="45" customHeight="1">
       <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="33" customHeight="1">
       <c r="A27" s="4">
         <v>7</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6220,644 +6220,665 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
-      <c r="A20" s="15">
+      <c r="A20" s="12">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="15"/>
+      <c r="A21" s="12"/>
     </row>
     <row r="22" spans="1:17" ht="29" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="24" spans="1:17" ht="29" customHeight="1">
-      <c r="A24" s="15">
+      <c r="A24" s="12">
         <v>2</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="15"/>
+      <c r="A25" s="12"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="15"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="15">
+      <c r="A28" s="12">
         <v>3</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="15"/>
+      <c r="A29" s="12"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="15"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="15"/>
+      <c r="A31" s="12"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="15"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
-      <c r="A34" s="15">
+      <c r="A34" s="12">
         <v>4</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="15"/>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" spans="1:17" ht="29" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
-      <c r="A38" s="15">
+      <c r="A38" s="12">
         <v>5</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="15"/>
+      <c r="A39" s="12"/>
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="15">
+      <c r="A42" s="12">
         <v>6</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="15"/>
+      <c r="A43" s="12"/>
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
-      <c r="A44" s="15"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="15"/>
+      <c r="A45" s="12"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="15"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
     </row>
     <row r="48" spans="1:17" ht="30" customHeight="1">
-      <c r="A48" s="15">
+      <c r="A48" s="12">
         <v>7</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="15"/>
+      <c r="A49" s="12"/>
     </row>
     <row r="50" spans="1:17" ht="29" customHeight="1">
-      <c r="A50" s="15"/>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
     </row>
     <row r="52" spans="1:17" ht="46" customHeight="1">
       <c r="A52" s="4">
         <v>8</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="15">
+      <c r="A54" s="12">
         <v>9</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="15"/>
+      <c r="A55" s="12"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="15"/>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="15"/>
+      <c r="A57" s="12"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="15"/>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="14"/>
+      <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="14"/>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="14"/>
+      <c r="A63" s="13"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="14"/>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="14"/>
+      <c r="A65" s="13"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="14"/>
-      <c r="B66" s="12" t="s">
+      <c r="A66" s="13"/>
+      <c r="B66" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="14"/>
+      <c r="A69" s="13"/>
     </row>
     <row r="70" spans="1:17" ht="31" customHeight="1">
-      <c r="A70" s="14"/>
-      <c r="B70" s="13" t="s">
+      <c r="A70" s="13"/>
+      <c r="B70" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="14"/>
+      <c r="A71" s="13"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="14"/>
-      <c r="B72" s="12" t="s">
+      <c r="A72" s="13"/>
+      <c r="B72" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B68:Q68"/>
+    <mergeCell ref="B70:Q70"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="B60:Q60"/>
+    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="B64:Q64"/>
+    <mergeCell ref="B66:Q66"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="B48:Q48"/>
+    <mergeCell ref="B50:Q50"/>
+    <mergeCell ref="B52:Q52"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="A68:A72"/>
@@ -6874,27 +6895,6 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="B46:Q46"/>
-    <mergeCell ref="B48:Q48"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="B52:Q52"/>
-    <mergeCell ref="B68:Q68"/>
-    <mergeCell ref="B70:Q70"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="B60:Q60"/>
-    <mergeCell ref="B62:Q62"/>
-    <mergeCell ref="B64:Q64"/>
-    <mergeCell ref="B66:Q66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6910,8 +6910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7034,268 +7034,268 @@
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
     </row>
     <row r="32" spans="1:17" ht="29" customHeight="1">
       <c r="A32" s="4">
         <v>8</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
     </row>
     <row r="34" spans="1:17" ht="46" customHeight="1">
       <c r="A34" s="4">
         <v>9</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
     </row>
     <row r="36" spans="1:17" ht="46" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
     </row>
     <row r="38" spans="1:17" ht="48" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
     <mergeCell ref="B28:Q28"/>
     <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B20:Q20"/>
     <mergeCell ref="B22:Q22"/>
     <mergeCell ref="B24:Q24"/>
     <mergeCell ref="B26:Q26"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="920" windowWidth="25600" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="3580" yWindow="920" windowWidth="25600" windowHeight="12960" tabRatio="500" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Pseudocode" sheetId="16" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Hidden Passion" sheetId="13" r:id="rId11"/>
     <sheet name="Karmic" sheetId="14" r:id="rId12"/>
     <sheet name="Cornerstone_Capstone" sheetId="15" r:id="rId13"/>
+    <sheet name="Compatibility ==&gt;" sheetId="17" r:id="rId14"/>
+    <sheet name="Life Path No" sheetId="18" r:id="rId15"/>
+    <sheet name="Expression" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="454">
   <si>
     <t>A</t>
   </si>
@@ -925,13 +928,559 @@
   </si>
   <si>
     <t>((ord(character) - ord("a")) % 9) + 1</t>
+  </si>
+  <si>
+    <t>Very Good Compatibility</t>
+  </si>
+  <si>
+    <t>OK Compatibility</t>
+  </si>
+  <si>
+    <t>Could go either way</t>
+  </si>
+  <si>
+    <t>Challenging</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>Your Life Path Number</t>
+  </si>
+  <si>
+    <t>This is a very lively couple and there is little negative to say about this combination. The 3 is good at acknowledging the 1's accomplishments and stroking the ego. The creative 3 provides the ideas and the light hearted, anything goes attitude, while the 1 provides the originality and the push, making this combination one of happiness and mutual pleasure for a long time. Despite the positive aspects, there are some pitfalls they have to be careful about, but overall this is a well balanced combination.</t>
+  </si>
+  <si>
+    <t>The compatibility of these two numbers is about as good as it gets. There will never be any danger of boredom, complacency, or emptiness in a relationship that has heads turning and people whispering. Both of these numbers like to have a lot of freedom in a relationship, and the one real threat is they try to impose their will on one another. The personality traits in this combination can both create and destroy, but like wind and fire, the one and five feed on each other and respect each other's powers, and when they set out side by side to fulfill their goals and dreams, nothing can withstand their combined forces. This is a relationship of intensity and moments of rarely achieved highs, where the promise of ecstatic experiences of love, spiritual bonding and shared dreams is very real.</t>
+  </si>
+  <si>
+    <t>This is a great match of two souls who have a healthy respect for the power of feelings and emotions. You should have little difficulty finding common ground on just about any issue that might arise. The only word of caution for this pairing is that as two people who feel and experience emotions strongly, they must each remember how thin their own skin and realize how vulnerable you both are to criticism. You may need to consciously work on this in order to prevent verbal injury to one other. Generally this is not a problem because of your mutual respect and the ability to relate to each other's emotional experiences.</t>
+  </si>
+  <si>
+    <t>Although perfection is not easy, if not impossible to find, and your relationship, just like any other is not without difficulty, this is one of the best combinations possible. This is a good pairing resulting in comfort personified. When it comes to home and family, the 4 is the ultimate builder and provider. 4's grounded and practical perspective complements the 2's sensitive and intuitive side, bringing a healthy balance to the relationship.</t>
+  </si>
+  <si>
+    <t>This number combination usually works out well. Because it is likely that each of you has a clear vision of your role, this relationship is often seen as the classic traditional family model, where the female 2 takes care of the family, and the male 8 takes care of the financial needs ... or in the case of the male being a 2 and female an 8, the classic male/female role reversal. Regardless of the roles, this combination's qualities can produce a balanced relationship, and when these two unite their individual strengths, you have the potential of a rewarding relationship that lasts for years and years.</t>
+  </si>
+  <si>
+    <t>The 3 and the 5 get along very well, making this is an excellent combination. You both communicate well, and the two of you will generally find each other's company interesting and enjoyable. Numerous activities, such as social events and travel, will keep this relationship from getting boring. The downfall, or rather dangers, of this pairing is because you are so compatible, you may end up enhancing each other's less desirable traits.</t>
+  </si>
+  <si>
+    <t>Because both parties know how to work hard, and have a good head for getting ahead in the world, this is a very good combination, not only in romance, but also in business. This is a couple that knows how to build for the future and develop a very secure relationship. Like in any other number combination, dangers do exist, and feelings of frustration can overshadow the love and respect that is the foundation of this relationship, but overall this is an excellent number pairing.</t>
+  </si>
+  <si>
+    <t>This is a combination of two numbers that can fulfill each other's needs and desires in many ways. The 7 enjoys its alone time, and the 5 is a busy body that appreciates the lack of demands for attention from its partner. When together, the pairing is able to find a stream of mutual interests to discuss and explore, particularly on the intellectual and spiritual planes, making this one of the best combinations for a long lasting relationship.</t>
+  </si>
+  <si>
+    <t>This is a very good, highly committed number pairing. Just like in any other relationship, there will come a time when obstacles will need to be overcome, however, because of the harmonious and loving nature of the 6, this is a combination charged with romance, and one that has a very good chance to form a strong, long lasting romantic relationship.</t>
+  </si>
+  <si>
+    <t>When 6 and 9 are found between two partners, the compatibility is usually very good. It is important that your respective negative traits aren't allow to grow and fester, creating an environment where you are more likely to clash. The give and take compromise is something you will need to do, in order to prevent unnecessary arguments from escalating, but because both of you are self-sacrificing, caring people, this is something that is not hard for either of you to do. Overall this is a highly compatible match.</t>
+  </si>
+  <si>
+    <t>No one understands the psyche of a 7 nearly as well as another 7. This is an excellent combination of two people who take life's mysteries seriously. With the right attitude, you will happily explore the world, or spend quiet days in solitude together. This is a beautiful pairing with potential for spiritual growth for both partners, and one where the term "soul mates" often applies.</t>
+  </si>
+  <si>
+    <t>This is a good pairing, not only in romance, but also in business. Having two 8s in a relationship puts each of you in a position where you are well suited to support each other. The pitfalls arise when you find yourselves competing with one another, or when you are both financially strapped. If you are able to unite your competitive natures against other forces, and follow your heart and intuition in the pursuit of success, this pairing has a strong chance of a long and happy relationship.</t>
+  </si>
+  <si>
+    <t>The compatibility between two 9s is excellent, and offers much promise for a very happy, inspiring, and engaging relationship. The many similarities, coupled with the selfless nature of the 9, make for a combination that faces very few challenges. Despite some pitfalls that may exist, this number set has great potential to form an unbreakable bond ... one that will not weaken over time.</t>
+  </si>
+  <si>
+    <t>Very Good:</t>
+  </si>
+  <si>
+    <t>OK:</t>
+  </si>
+  <si>
+    <t>This meeting of two very different people is a very promising combination, with the key being mutual respect and sincerity. 1, being strong, driven, competitive, and sometimes overbearing, is best equipped to be the leader, to be the motivating force. The 2, being sensitive, insightful and supportive, is by nature the "power behind the throne", allowing the 1 to throw some weight around without losing sight of what has to be done and how to do it. There is no power struggle, both of you know what you want, and you complement each other very well.</t>
+  </si>
+  <si>
+    <t>This is a combination that has the potential for a long lasting relationship, without ever going through the kind of turbulence so many other relationships experience. The important thing for both 1 and 6 is to understand that they are very different in the way they view human qualities. Their priorities differ and if they are able to keep an eye open for their differences, and are able to work past this roadblock, this can be a successful pairing ...the key is to value their respective good qualities, and give each other the support they both need.</t>
+  </si>
+  <si>
+    <t>More often than not, the combination of 2 and 3 enhances each other's creative juices, potentially making this is a very good partnership. While the 3 is full of life and social energy, the 2 is happy standing back and enjoying the show, and as long as the 3 can keep its verbal impulses under control, and the 2 has enough confidence to handle occasional criticism, the relationship has every chance of bringing love and joy to both of you.</t>
+  </si>
+  <si>
+    <t>This is in general a good compatibility match. The 6's priorities lie with family, to care for and comfort your loved ones, while the 2 is a sensitive, emotionally aware number, enabling you both to love easily and without holding back, forming a strong foundation for a long lasting relationship. Despite these common traits that bring a positive energy to your relationship, you both need to watch your own negative traits, such as 6's need for approval and praise, or 2's insecurity and occasional bouts of jealousy and envy. With these under control, and with considerations of feelings for each other on both sides, the likely hood of a crash in less likely than in most other number combinations.</t>
+  </si>
+  <si>
+    <t>Happy go lucky, interesting, and creative ... describes this pairing of two numbers who joke easily, and know how to please each other, while at the same time being able to enjoy each other's company within your dynamic social environment. This is a fun pair that understands and supports one another. Troubles might arise, however, when the question becomes as to who is going to take care of the mundane tasks. You both have a tendency to skim over the rough spots, and when fun and joy become too high a priority and neither partner is willing, or able, to take care of the practical everyday details, this can destabilize the foundations and bring friction to your relationship.</t>
+  </si>
+  <si>
+    <t>This combination is a creative couple, with an active social life. The 3, full of enthusiasm and sense of humor, and the 6 providing the warmth, support, and self sacrificing love, makes this combination an ideal team that will work well in most cases. The chemistry here is very strong, but while there is no lack of emotion, the pitfall here is the possibly excessive emotional bond experienced by the 6. Usually it will be the 6 who will have to learn to deal with this inborn trait, and allow the 3 enough space and freedom to move and breathe.</t>
+  </si>
+  <si>
+    <t>The pairing of a 3 and a 9 is a combination of two people who, through their powerful imaginations, are able to keep each other endlessly engaged in a variety of creative ways. Despite the occasional self-centered and egocentric tendency of both numbers, this combination reflects excellent compatibility. The problem the couple faces is when they are both vying for the same limelight, and despite the fact that privately they respect and like each other, they can become very competitive, in which case they will do almost anything to win.&lt;</t>
+  </si>
+  <si>
+    <t>Despite the common traits shared by this pairing, it is usually not very common for these two numbers to fall in love. However, because you are both responsible and family oriented, and you both value stability and security, if you do get involved in a romantic relationship, it is usually a strong, comfortable match straight from the beginning, with potential to last for a life time.</t>
+  </si>
+  <si>
+    <t>This combination is one in which the earth meets the heaven, and just like earth and heaven, the two of you can't exist without one another. There are some sharp angles that will need to be rounded off, but this pairing, which makes life both secure and at the same time more interesting for both of you, can much more easily overcome the challenges inherit in every relationship.</t>
+  </si>
+  <si>
+    <t>The two 5s form a very comfortable match. This is a relationship that is tolerant, easy going and flexible, and in which both of you take your commitment to each other seriously, allowing you to weather many storms. The dangers of this pairing come from within, and it is the adventurous, freewheeling lifestyle, which is normally a plus, that can cause difficulty in focusing on the mundane day-to-day affairs, and can lead to somewhat of a wild streak that can include drugs, alcohol, and other such vices.</t>
+  </si>
+  <si>
+    <t>The practical, goal oriented, and responsible nature of these two numbers makes this a very positive and compatible pairing. The dangers lay in the different ways the 6 and the 8 view responsibility, and how they go about accomplishing their goals. The 6 is more oriented on family and friends, while the 8 is more focused on the executive lifestyle and the obligations that come with it. Despite these differences, the combination is all together a very good match.</t>
+  </si>
+  <si>
+    <t>Either way:</t>
+  </si>
+  <si>
+    <t>Both of you are head strong, with a strong desire to lead, which can make this a challenging combination. Even though as One's you might understand each other's needs, and share things in common, in this case this is not necessarily an advantage. This is a relationship of extremes with either partner refusing to surrender their leadership qualities, and the match can get dicey, especially when they start to compete, particularly at the onset of the relationship. Despite this "butting of heads", when two people with such driving forces do get along, and their mutual competitive streaks are overcome, this can be a very promising combination.</t>
+  </si>
+  <si>
+    <t>1 and 7, your compatibility is unpredictable … some relationships between one's and seven's thrive while others don't stand a chance. The initial connection in this combination is usually intellectual - a level where you can relate and have plenty to share. 1's a willingness to get off the beaten path, and an open and unconventional mind make for a great intellectual partnership with 7. You are two people who happily venture into new, strange or unknown intellectual and spiritual territories, and if you happen to click this can lead to a very promising combination. Free thinkers, for very different reasons, driven by very different perspectives, and with very different energies, somehow blend nicely to make a nice, spicy recipe.</t>
+  </si>
+  <si>
+    <t>Due to the fact that both of you have a tendency towards arrogance, as well as to being somewhat egocentric, this is a very difficult relationship, as far as romance is concerned. It will only work if a certain amount of distance is maintained. Each of you has to live your own life. Ironically, although difficult, this is not a bad combination for most other kinds of relationships. Friendships, parent-child, as well as business relationships, often work very well with this combination. 1 and 9 stand on opposite ends of the spectrum … they complement and balance each other. Together, they represent a lot of talents and useful qualities that ensure a powerful combination in most relationships, except in romance.</t>
+  </si>
+  <si>
+    <t>This is a unique combination that has both strong and dissimilar needs, a combination where intuition meets intelligence, sensitivity meets analysis, and the heart meets the mind. Although these two numbers rarely express interest in one another, when they do, the result can often lead to a relationship that's welded for life.</t>
+  </si>
+  <si>
+    <t>The pairing of 3 and 4 can lead to either a promising, or a very difficult and challenging combination. When the spontaneous 3 pairs with the grounded 4, something has to give, and often it won't. The 3 is an optimistic, fun loving number, one of go with the flow attitude that takes each day as it comes. The 4 on the other hand is more disciplined, practical, and has a definite plan for the future. If the two of you can ever figure out how to meet in the middle, and balance each other's shortcomings, this can be a good combinations. However, when life becomes a challenge and wordly problems arise, the 3 and 4 are a pair least prepared to deal with them.</t>
+  </si>
+  <si>
+    <t>This is a combination where the number set is compatible in some areas and incompatible in others, therefore, this relationship requires a bit of extra effort. Because of the 3 and the 8 having very different views as to what is important in life, unless they learn to respect each other's needs and expectations, the relationship will not last long. Despite this, because you complement each other well, more often than not, you can get along very well and can be quite compatible.</t>
+  </si>
+  <si>
+    <t>This is a stable pairing; however, because of the nature of the 4, you both tend to get somewhat irritated when established routine is disturbed. This can lead to a relationship that is either very good, or extremely stressful, with little room in the middle, and so the compatibility can depend largely on how compatible your daily routines are. Upside of this pairing is stability and security ... the downside is that it is hard to relax, be spontaneous, and enjoy the moment.</t>
+  </si>
+  <si>
+    <t>This combination of numbers is a match that is usually very physical and sensual. The 5s freedom loving nature and 6s grounding force can complement each other well, but only if both of you are willing to compromise. If you can find a way to meet in the middle, avoid the tendency to become stuck in your individual positions, and live a lifestyle that is in harmony with that of your partner, this can be a promising relationship.</t>
+  </si>
+  <si>
+    <t>This combination is somewhat neutral as far as compatibility is concerned. There is neither like nor dislike between you two. Discourse can arise when your positions on religion and spirituality are not in harmony with one another, or when your different tastes in general are questioned by one another. On the plus side, because of your unique energies, there is otherwise rarely any kind of friction, and conflicts are dealt with reasonably.</t>
+  </si>
+  <si>
+    <t>Challenging:</t>
+  </si>
+  <si>
+    <t>One's and Four's strengths can make for a solid relationship for a long a long time only to crash and burn in the blink of an eye. This can be a thriving relationship as long as 1 doesn't start on a path of unknowns and risky, questionable results. However, that will unavoidably happen and 4 will at times be seen as a stick in the mud, a source of frustration for 1. When this kind of situation becomes overwhelming, it will almost certainly bring this relationship to an end. On the other hand, as long as 1 is able to respect 4's need for a secure, perhaps even predictable, lifestyle, and 4 can understand 1's need to try new avenues, take risks, occasionally venture out into unknown territories, the relationship can endure.</t>
+  </si>
+  <si>
+    <t>From the love angle, this combination is questionable at best. Both of you are strong willed, assertive and demanding, while at the same time stubborn people … it's like having two captains on deck … which leads to uneasiness, discomfort and distress. Neither one of you accepts anything less than full respect and an equal playing field, and neither one of you can be dominated or would accept being someone's sidekick. Even though both of you may share many common interests, any negative feedback from either of you can be deadly in this pairing. Success depends on a mutual willingness to compromise and limit demands, otherwise small arguments can be blown out of proportion.</t>
+  </si>
+  <si>
+    <t>This is a combination where the chemistry has to be very strong in order for the two very different souls to forge some significant compromises. Like fire and water, when 2 and 5 occupy the same space, either the fire makes the water evaporate, or the water drowns out the fire. Although the two numbers can provide a lot for one another that may otherwise be missing, it is not an easy road, and in general, when the 2 and 5 are in the same part of the numerological chart, it makes for a short lived relationship.</t>
+  </si>
+  <si>
+    <t>This combination of numbers doesn't get along two well in terms of romantic compatibility. Despite both being loving and caring numbers, the 9's focus is on the world, and the care they naturally possess is shared with all of humanity, while the 2's emotions like to be focused on the one single person they love. Generally speaking, the 2 and a 9 can form successful alliances in other circumstances, such as a business partnership, but when it comes to the needs and desires of their heart, you will need much effort to make it work.</t>
+  </si>
+  <si>
+    <t>These two make up an interesting combination, one of two very different types of people. The 3 is restless, energetic, and constantly on the go, with a swirl of activity, travel, and social contact which the 7 usually finds intolerable. The 7 needs quiet and solitude to recharge, and can only take so much human contact before retreating to their place of peace and quiet. Confrontation in this pairing never works well, and because of the different natures of the 3 and the 7, this is a relationship that can either last for a couple of weeks, or remain exciting and strong for a lifetime.</t>
+  </si>
+  <si>
+    <t>In short, this is a challenging combination. The 4 and the 5 are each other's polar opposites. 4 likes routine and predictability, 5 prefers change and unexpected, and the only way this pairing can survive is if you accept each other as you are, respect your differences, and don't try to change your partner.</t>
+  </si>
+  <si>
+    <t>The successful pairing of these two numbers is very rare, and important differences will have to be addressed and accepted by both of you if you want this relationship to last. The two numbers usually don't connect, and rarely see eye to eye. If you have a successful relationship, this usually indicates that other numbers in your numerological chart play a significant enough of a role to overcome this particular incompatible combination.</t>
+  </si>
+  <si>
+    <t>Romantically, this is not a very good match. Your individual qualities and interests rarely overlap, and while the 5 is dynamic and likes freedom from rules and restraints, the 8 is a strong authoritative figure used to being the boss. It will take careful planning and compromise, and roles that are very different and far apart, for this relationship to work.</t>
+  </si>
+  <si>
+    <t>There is very little that these two numbers have in common. 9 perceives the 5s love of freedom as irresponsible, while the idealism of the 9 appears superficial to the 5. If you are in a relationship, it would suggest that other numbers in your numerological chart are responsible for the attraction between the two of you. You will need to compromise and be much more diplomatic than other number sets in order for this match to be successful.</t>
+  </si>
+  <si>
+    <t>Because the 6 and the 7 represent very two different people, with very different ideas, each number expresses love in a different way. This can lead this number pairing to form a somewhat of a love-hate relationship. 7s secretive and "aloof" nature, with the need for certain amount of distance, doesn't bode well with the 6s need for open expressions of love and emotions. This can cause a rift where the 6 feels insecure about the relationship, while the 7 experiences the 6s loving attention as an annoying disruption. Not all is lost, however, and as long as the two of you are able to recognize these differences, there is potential here.</t>
+  </si>
+  <si>
+    <t>These two numbers neither attract nor repel one another, and it is most common that this pairing is based more on the physical rather than the emotional. The 7s aversion against the 8s tendency to control, and the 8s preference of practical matters as opposed to the 7s philosophical and spiritual nature can lead to frequent verbal battles. This is a combination where your attraction is most likely based on other numbers in you numerological chart.</t>
+  </si>
+  <si>
+    <t>This number pairing is not considered very compatible at all. Your goals are very different and you'll frequently find yourselves on the opposite spectrum of a discussion. Although there is often a strong attraction that can form the foundation for an interesting relationship, the only way this pairing will last is if both of you recognize and respect the big differences between one another.</t>
+  </si>
+  <si>
+    <t>Numbers that can go either way - or may be neutral </t>
+  </si>
+  <si>
+    <t> 1      5      7</t>
+  </si>
+  <si>
+    <t>3     9</t>
+  </si>
+  <si>
+    <t> 8</t>
+  </si>
+  <si>
+    <t> 2      4     6</t>
+  </si>
+  <si>
+    <t> 2       4      8</t>
+  </si>
+  <si>
+    <t>3     6</t>
+  </si>
+  <si>
+    <t> 9</t>
+  </si>
+  <si>
+    <t> 1       5      7</t>
+  </si>
+  <si>
+    <t>3      6      9</t>
+  </si>
+  <si>
+    <t> 1      2      5</t>
+  </si>
+  <si>
+    <t> 4       7       8</t>
+  </si>
+  <si>
+    <t> 2       4      8</t>
+  </si>
+  <si>
+    <t> 6       7</t>
+  </si>
+  <si>
+    <t> 1     3     5     9</t>
+  </si>
+  <si>
+    <t> 1       5      7</t>
+  </si>
+  <si>
+    <t> 3      9</t>
+  </si>
+  <si>
+    <t> 2      4     6</t>
+  </si>
+  <si>
+    <t> 3      6       9</t>
+  </si>
+  <si>
+    <t>2     4      8</t>
+  </si>
+  <si>
+    <t> 1     5     7</t>
+  </si>
+  <si>
+    <t>1      5      7</t>
+  </si>
+  <si>
+    <t> 2      3     6    8</t>
+  </si>
+  <si>
+    <t> 2      4      8</t>
+  </si>
+  <si>
+    <t>  1     5</t>
+  </si>
+  <si>
+    <t> 3       7       9</t>
+  </si>
+  <si>
+    <t> 3      6       9</t>
+  </si>
+  <si>
+    <t>1      5</t>
+  </si>
+  <si>
+    <t>2       7</t>
+  </si>
+  <si>
+    <t> 4        8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two people with a strong desire to lead, and, two people who want very much to be independent. Two 1s in a relationship understand and accept each other perhaps better than any other number can understand the 1. This is a relationship not without pitfalls as the match can get dicey when they start to compete. But for the most part, it is a good one filled with excitement and activity.
+</t>
+  </si>
+  <si>
+    <t>This is a very compatible combination as both of these numbers are ones that like to have a lot of freedom in a relationship. The drive for independence is paramount for each. They may be so busy with their own "thing" that time together is limited, very special, and often exciting. As you might expect, the most serious threat is when either tries to impose his or her will on the other.</t>
+  </si>
+  <si>
+    <t>These are very different energies but ones that somehow blend nicely. The 7 provides wise insights while the 1 becomes a needed motivator. The key is to understand the tendencies; the 1 can get too busy with the outer world to always be there for the 7, and the 7 can be too into their own world to be there for the 1. Neither should take this absence personally.</t>
+  </si>
+  <si>
+    <t>A great match of two souls both needing to give and receive love. Experts at mediation, they have little difficulty finding common ground on just about any issue that arises. The only word of caution for this pairing is that they must each remember how thin their own skin is so as to not cause verbal injury to the other. Generally this is not a problem because of their polite manner and mutual respect.</t>
+  </si>
+  <si>
+    <t>This is a steady pairing resulting in comfort personified. When it comes to home and family, the 4 is the ultimate builder and provider. Security is 4's forte. Nothing is more appealing to the 2 than home, hearth, and family. The only difficulty likely here is one of perception. The 2 needs love to be shown and always physically apparent, and the 4 is sometimes not so demonstrative.</t>
+  </si>
+  <si>
+    <t>A pairing that usually works very well because it is likely that each has a clear vision of their role. The 8 is about the outer world of business and attainment, taking care of the financial needs of the family. The 2 takes care of the family and is there to pamper the ego of their partner. A pitfall in this relationship can occur if the 8 fails to sufficiently value the labors of the 2. Generally, this is the classic traditional family model, or in the case of the male 2, female 8, the classic male/female role reversal.</t>
+  </si>
+  <si>
+    <t>When the spontaneous 3 pairs with the micro-manager 4, something has to give, and often it won't. The 3 will take each day as it comes while the 4 has to have a definite plan far into the future. If the two can ever figure out how to meet in the middle, they will do a good job of balancing each other's shortcomings. The 3 will show the 4 how to have fun while the 4 can give the 3 a needed sense of security.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild and interesting describes this pairing of two with so much creative and social potential. No one has more fun that a pair of 3s who understand and support one another. The question may become who is going to take care of the mundane. The pitfall of this relationship comes when neither partner can hold on to reins of practical everyday details.
+</t>
+  </si>
+  <si>
+    <t>This is a natural combination that works well in most cases. The 3 is full of enthusiasm and ideas, and the 6 provides the stability, support, and encouragement that often makes this combination an idea team in many ways. The chemistry here is very strong and durable. The challenge of this combination can come in the form of 6 jealous feelings toward the oft flirtatious 3. Usually it will be the 6 who will have to learn to deal with an inborn trait.</t>
+  </si>
+  <si>
+    <t>This is a wonderful combination of two people who are apt to keep each other endlessly engaged in a variety of creative ways. Both like to be on stage and both are interested in people. They care about people and the 9 can be generous to a fault. The 9 is the teacher and the 3 is the ever eager student. Sharing experience is a never ending joy of this pairing. The problem the couple faces is settling down, feathering a nest, and keeping the bills paid. Even after they are settled and set, romantic adventures will always be important.</t>
+  </si>
+  <si>
+    <t>The keywords for this combination are solid and secure. For individuals who need to know that the bills are paid and future is totally secure, who better to fill this need than another 4. These two will share goals that they work for and nearly always achieve. Success is measured by a sense that growth is continual and this includes love and romance. The down side of this pairing, if there is one, is the sense that nothing is ever completely okay. It's hard to relax , be spontaneous, and enjoy the moment and each other. Nonetheless, there are few relationships destined to be more stable than this one.</t>
+  </si>
+  <si>
+    <t>This is a comfortable pairing because both parties understand hard work and have a good head for business and getting ahead in the world. The 4 is the cautious planner, while the 8 has a more grandiose approach to endeavors. The only problem probably can be one of finding the time to spend together in a quest for romance. Yet this is a couple that knows how to build for the future and develop a very secure relationship.</t>
+  </si>
+  <si>
+    <t>A pair of 5s is a very compatible couple who prize their freedom to be different and adventuresome. Few others will be as open to the constant flow of new ideas and changes so common in the 5. In this relationship, partners easily anticipate what the other is thinking and where they are going. And they also have a sense for staying out of the way and accepting the freewheeling lifestyle. 5s choosing to support one another can do just about anything. The difficulty with this pairing is focus, and there may be a problem handling the mundane day-to-day affairs.</t>
+  </si>
+  <si>
+    <t>This is a relationship which is more or less free of rules and procedures. In some ways, these two are much alike and the relationship is generally very compatible. The 7 values the time to be alone and enjoy the world of study and reflection in their private space. At the same time, the 5 has plenty going on and appreciates not having demands for attention being the paramount feature of the relationship. Yet these two can get together and find a never ending stream of mutual interests to discuss and explore.</t>
+  </si>
+  <si>
+    <t>This is a combination charged with romance, but in essence it is rather practical by nature. Home and family is second nature here, and these will be the top priorities for sure. This is a very compatible pairing. The 6 knows what's best for their partner, so they do a good job of taking care of each other, and a family is a must. Yet the 6 by its nature wants the whole family under his/her thumb, so the challenge may be in agreeing who is going to be charge. The circumstances of the relationship will usually be able to sort this out.</t>
+  </si>
+  <si>
+    <t>This is generally a very compatible relationship prospect as the 9 is one of the few numbers to gain 6's utmost respect. In a family situation, the 6 is unsurpassed as a manager, and the 9 is never reticent in heaping praise in recognition. This often creates a mutual admiration environment that provides a happy home for both partners. The 6 helps the 9 stay focused on details and common sense issues, while the 9 broadens the 6's outlook and sense of the world at large. The expansiveness of this pairing may suggest the need to keep a close eye on the budget.</t>
+  </si>
+  <si>
+    <t>This is one situation in which no one understands the eccentricities of a 7 nearly as well as another 7. Thus, this is a very compatible pairing. With the right attitude, this couple will find the interest to freely explore the world together, or spend their days in happy solitude together. Chances are you are on the same psychic wavelength, so you will surely catch the signals as they flash by. The downside of this pairing is the tendency to not communicate, so an effort may have to be made to keep the lines open and operating.</t>
+  </si>
+  <si>
+    <t>This pairing might be known as the "Dynamic Duo" as this is a combination that is full of passion and romance. Indeed, this pairing is a strong and enduring match- up. Yet both partners will be easily distracted by the events in their life as goals and professional demands often supersede romantic possibilities. Solid as the relationship probably is, the couple may have a hard time communicating the depth of feeling in either word or deed. Guard against competing with one another, and getting caught up in schedules and the demands of work. Make time for each other and always focus on being equal partners.</t>
+  </si>
+  <si>
+    <t>This relationship has much promise as it usually engages two charismatic types possessing much intellectual stimulation. The nature of the 9 is selfless, so this combination usually faces few challenges; each wanting to please the other and always be there for each other. A relationship offering the opportunity to grow, learn, and serve, this is often an inspiring combination.</t>
+  </si>
+  <si>
+    <t>This is a very lively couple that seem to shamelessly enjoy life and each other. The 3 is good at acknowledging the 1 accomplishments and stroking the ego. The 3 provides the ideas and the 1 provides the push, so this couple can cover a lot of ground. Yet they have to be careful about what they say since neither handles criticism very well.</t>
+  </si>
+  <si>
+    <t>The 9 brings a selflessness to the relationship which allows the 1 to operate in an environment that is understanding and smooth flowing. The 1 will have to learn to share the partner who is inclined to extend a giving nature outside the home. If there is trouble in this partnership it will generally come from the 9s difficulty tolerating the 1's assertive and individualistic behavior.</t>
+  </si>
+  <si>
+    <t>These are potentially very good partners because of the good humor and good chemistry. The 3 is always "on stage" and full of life and social energy, while the 2 is happy as a lark standing back and enjoying the show. The 2 balances the needs of the 3 by providing a soothing and calming influence.</t>
+  </si>
+  <si>
+    <t>This is another good love match. The 6 ranks first in family while the 2 tops the chart in love and caring. Still the pair need to watch their Ps and Qs as the 6 has a surprising need for approbation, and 2's thin skin can suffer with the direct and demanding approach that sometimes characterizes the 6. Considerations of feelings is a must.</t>
+  </si>
+  <si>
+    <t>This is one of the most social combination you will find. The two will generally find each other very interesting and their ability to entertain will be never ending. Social opportunities, travel, and numerous activities promise this relationship won't get boring. Both are creative by nature, yet neither excels at managing the budget, so everyday affairs can cause problems sometimes.</t>
+  </si>
+  <si>
+    <t>A comfortable match of traditional types, this pairing has promise from the very beginning. Chances are the 6 will want to take the lead in this relationship, and a secure home and family are all that is needed to produce a satisfying long-term situation. The challenge of this relationship is compromise. Neither is very good at this.</t>
+  </si>
+  <si>
+    <t>This is a relationship that has a serious tone about it and may be driven by a mutual need for security. It is loyal and devoted, even it it may lack the fire and passion of some combinations. The 4 is a natural provider of rock solid security and home values. The 7 provides a quest for continued mental development and adventure. The combination makes life both secure and yet more interesting for both.</t>
+  </si>
+  <si>
+    <t>This is a relationship between two who may find it hard to work the relationship into their busy schedules. Both of these numbers represent people who are apt to be in a constant state of transition and change. In this regard they have much in common and will generally find each other very interesting, for the moment or for the long haul. The compassion of the 9 and progressive thinking of the 5 seems to blend well. Establishing a commitment to security is a must.</t>
+  </si>
+  <si>
+    <t>This is a very positive and compatible relationship of two who are usually open and positive in most that they do. This is a couple with big ideas, and their ideas are usually brought to reality in grand fashion. The home will provide plenty of space for family, work, and frequent entertaining of their many friends. A down side to the relationship can occur if the possessive 6 has to compete too much with the business interests of the 8. Likewise, the 8 will be frustrated when the demands at home cramp the executive lifestyle and obligations.</t>
+  </si>
+  <si>
+    <t>From a business standpoint, this is a good match. But from the love angle, it is questionable at best. Both are so assertive and demanding, that expectations can far exceed reality. Negative feedback from either will be deadly in this pairing. Success depends on a open and mutual willingness to compromise and limit demands.</t>
+  </si>
+  <si>
+    <t>These two can have a wonderful relationship or it can be not so wonderful. The 2 needs constant attention, and certainly the 9 is a caring individual. But the care they naturally possess is spread to all humanity and often it is not focused enough at home. The 9 is a natural leader and the 2 is a natural follower, so there is always hope. The 9 needs to remember that the 2 hates to be alone, and the 2 needs to be forewarned that the 9's love will only stretch so far.</t>
+  </si>
+  <si>
+    <t>This is a relationship between two individuals who don't always follow the rules, and they might find themselves locking horns on the rules of a relationship. The 8 is used to being the boss and dominating most situations. The 5 seeks freedom from any restraints. The 8 is focused on success, particularly in a financial sense, and the 5 doesn't even want to think about money. It will take careful planning and compromise to make this relationship work.</t>
+  </si>
+  <si>
+    <t>This couple is anything but neutral in their affiliation. They are listed neutral because the relationship can go either way depending largely on spiritual beliefs. Both have strong spiritual inclinations and deeply held positions. However, these views of the spiritual and God often divide along rigidly held lines. In such cases, compromise is usually not an option. When the spiritual positions are in harmony, this can be a very compatible combination.</t>
+  </si>
+  <si>
+    <t>Two very different people who do well if they remember their roles. The 1 is best equipped to be the breadwinner, and the 2 will be the one to feather the nest and keep the warmth of romance alive and well. The 1 must avoid being distracted and never forget how important attention is for the 2 partner.</t>
+  </si>
+  <si>
+    <t>4's desire for control is a tough sell on the 1. The 1's need to make things happen now, frustrates the meticulous 4. Opposites in many ways, these two should not expect easy compromise. If they ever can accept one another for who they are, their respective strengths will make a solid relationship.</t>
+  </si>
+  <si>
+    <t>This is a power struggle waiting to happen. The 6 wants and needs to a caretaker. The 1 has an absolute need to be independent and unrestrained. This can be a successful pairing only if they can work past this roadblock, and give each other the support they both need.</t>
+  </si>
+  <si>
+    <t>The 2 needs family and an ever present sense of being loved, and the 5 need total freedom to pursue whatever avenues appear on the horizon. This is one where the chemistry has to be very strong in order for the two very different souls to forge some significant compromises. Obviously, these two can provide a lot that may otherwise be missing, but it won't be an easy road.</t>
+  </si>
+  <si>
+    <t>This is a couple that has some strong and dissimilar needs. The 2's need for demonstrative love and 7's need for a good deal of space and solitude make this a pairing that will work only if both can stay tuned in to the other's needs and be willing to cater to them at least to some degree. Generally the 2 will have to find something to occupy much of the time that would otherwise be devoted to the mate.</t>
+  </si>
+  <si>
+    <t>These two are about as different as people get. The 3 wants to be constantly on the go with a swirl of activity, travel, and social contact that the 7 will find intolerable. The 7 needs solitude and can only take so much human contact before retreating to their preferred peace and quiet. Confrontation in this pairing never works well, and it will be up to both to understand the long-term need for compromise. The key to success here is open dialog regarding wants, needs, and goals.</t>
+  </si>
+  <si>
+    <t>This is a combination that requires extra effort mostly because of the departure of needs. The 8 needs goals and authority to feel happy, and efforts focused here leave the 3 without needed attention and stimulation. The secret to success in this combination, if there is one, is frequent getaways; periods when the 3 gets the 8 away from business and relaxed enough to have some fun. There isn't much frivolity in the 8, and this can sometimes be a tough sale.</t>
+  </si>
+  <si>
+    <t>Challenge. The 4 and the 5 have different temperaments and different ways of communicating. The 4 is very direct to the point, while the 5 will be more diplomatic and indirect. 4s don't like change, and 5s have to have it. To find success, this couple will need to respect the difference and pay attention to what is said and what is inferred.</t>
+  </si>
+  <si>
+    <t>These two are so very different that successful pairings are rare. The 9 is far more social and fosters deep humanitarian instincts. The 4 is focused on the basics of building a secure and solid immediate world. To succeed in a relationship requires both to be aware of how different their approaches are, and somehow muster a willingness to accept. The 4 will certainly appreciate the 9's knowledge and intelligence, and the 9 must likewise value the 4's ruthless consistency.</t>
+  </si>
+  <si>
+    <t>This is a combination requiring great compromise since the 5 thrives on freedom and space, and the 6 is noted for exerting control and nurturing supervision. The 6 wants complete commitment, and the 5 is looking for adventure and new horizons. In a relationship, they would probably be good for each other if they could find a way to meet somewhere near the middle. They must avoid any tendency to become entrenched in positions that just won't work for the other.</t>
+  </si>
+  <si>
+    <t>These are two very different people with very different ideas about a relationship. The 6 is openly interested in a permanent situation complete with a stable home and family. With the secretive 7, it is hard to tell what the goal might be, and only time will tell. Despite the sexual attraction that may be present, this is a very challenged combination. The 6 is too controlling, and the 7 just isn't to be closely managed. The compromises required in this relationship really bend and manipulate the natural traits of both numbers.</t>
+  </si>
+  <si>
+    <t>This is a combination that seems to work well physically, but one which is plagued with problems on the emotional level. The 8 has a tendency to dominate and control, and the 7 is a very private person prone to resist attempts to exert authority. The power of both numbers can result in frequent verbal battles. Yet there is a stability factor in the pairing that makes long-term success a possibility if accommodations can be reached.</t>
+  </si>
+  <si>
+    <t>This is a challenging combination in which two highly motivated individuals - motivated in very different ways - find it hard to accept the ways of the other. In general the goals of the 9 are lofty and may have a humanitarian bend, while the 8 seeks the reward that comes with development of leadership and material success. To have much of a chance, the 8 will have to appreciate the lessons that can be learned from their generous partner. When they are able to work as a team, this is a powerful and often inspirational pair. Too often, however, the combination fails to click.</t>
+  </si>
+  <si>
+    <r>
+      <t>Numbers that produce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>easy compatibility or seem to be a natural fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Numbers that are usually </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compatible and find it easy to get along</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Numbers that are often a bit of a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>challenge and require much compromise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>3, 5</t>
+  </si>
+  <si>
+    <t>2, 6</t>
+  </si>
+  <si>
+    <t>1, 7, 9</t>
+  </si>
+  <si>
+    <t>4, 8</t>
+  </si>
+  <si>
+    <t>2, 4, 8</t>
+  </si>
+  <si>
+    <t>1, 3, 6</t>
+  </si>
+  <si>
+    <t>5, 9</t>
+  </si>
+  <si>
+    <t>1, 5</t>
+  </si>
+  <si>
+    <t>2, 3, 6, 9</t>
+  </si>
+  <si>
+    <t>2, 8</t>
+  </si>
+  <si>
+    <t>6, 7</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>1, 5, 9</t>
+  </si>
+  <si>
+    <t>1, 3, 7</t>
+  </si>
+  <si>
+    <t>2, 4, 8, 9</t>
+  </si>
+  <si>
+    <t>6, 9</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 8</t>
+  </si>
+  <si>
+    <t>5, 7</t>
+  </si>
+  <si>
+    <t>1, 2, 9</t>
+  </si>
+  <si>
+    <t>3, 6, 8</t>
+  </si>
+  <si>
+    <t>1, 5, 7, 9</t>
+  </si>
+  <si>
+    <t>1, 7</t>
+  </si>
+  <si>
+    <t>2, 4, 5, 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -970,6 +1519,31 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666699"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF336699"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -996,70 +1570,70 @@
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1078,22 +1652,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1489,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -2728,268 +3313,268 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
     </row>
     <row r="41" spans="1:17" ht="48" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B41:Q41"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="B27:Q27"/>
     <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B41:Q41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3204,208 +3789,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="44" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3446,24 +4031,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3637,208 +4222,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3880,24 +4465,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -3938,602 +4523,621 @@
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
     </row>
     <row r="59" spans="1:17" ht="32" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B41:Q41"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="B59:Q59"/>
+    <mergeCell ref="B45:Q45"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
     <mergeCell ref="B61:Q61"/>
     <mergeCell ref="B63:Q63"/>
     <mergeCell ref="B47:Q47"/>
@@ -4542,28 +5146,1479 @@
     <mergeCell ref="B53:Q53"/>
     <mergeCell ref="B55:Q55"/>
     <mergeCell ref="B57:Q57"/>
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="B13:Q13"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B41:Q41"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="B59:Q59"/>
-    <mergeCell ref="B45:Q45"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B31:Q31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFCCFFCC"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="18" customFormat="1"/>
+    <row r="2" spans="1:6" s="18" customFormat="1"/>
+    <row r="3" spans="1:6" s="18" customFormat="1">
+      <c r="B3" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1">
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="18" customFormat="1">
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="E6" s="22">
+        <v>7</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="18" customFormat="1">
+      <c r="B7" s="22">
+        <v>3</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F7" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="18" customFormat="1">
+      <c r="B8" s="22">
+        <v>4</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="18" customFormat="1">
+      <c r="B9" s="22">
+        <v>5</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="22">
+        <v>5</v>
+      </c>
+      <c r="E9" s="22">
+        <v>6</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="18" customFormat="1">
+      <c r="B10" s="22">
+        <v>6</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" s="22">
+        <v>5</v>
+      </c>
+      <c r="F10" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="18" customFormat="1">
+      <c r="B11" s="22">
+        <v>7</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="22">
+        <v>4</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="18" customFormat="1">
+      <c r="B12" s="22">
+        <v>8</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D12" s="22">
+        <v>6</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="18" customFormat="1">
+      <c r="B13" s="22">
+        <v>9</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>6</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="18" customFormat="1">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" s="18" customFormat="1">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" s="18" customFormat="1">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" s="18" customFormat="1">
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" s="18" customFormat="1">
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" s="18" customFormat="1">
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" s="18" customFormat="1">
+      <c r="B7" s="19">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" s="18" customFormat="1">
+      <c r="B8" s="19">
+        <v>6</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" s="18" customFormat="1">
+      <c r="B9" s="19">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" s="18" customFormat="1">
+      <c r="B10" s="19">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" s="18" customFormat="1">
+      <c r="B11" s="19">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>6</v>
+      </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>8</v>
+      </c>
+      <c r="B113">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4655,353 +6710,347 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="12">
+      <c r="A15" s="15">
         <v>1</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="12"/>
+      <c r="A16" s="15"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="12"/>
+      <c r="A18" s="15"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="15">
         <v>2</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="12"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="12"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="12">
+      <c r="A27" s="15">
         <v>3</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="12"/>
+      <c r="A28" s="15"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="12">
+      <c r="A31" s="15">
         <v>4</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="12"/>
+      <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="12"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="12"/>
+      <c r="A34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="12"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="12"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="12">
+      <c r="A39" s="15">
         <v>5</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="12"/>
+      <c r="A40" s="15"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1">
-      <c r="A43" s="12">
+      <c r="A43" s="15">
         <v>6</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="12"/>
+      <c r="A44" s="15"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1">
-      <c r="A47" s="12">
+      <c r="A47" s="15">
         <v>7</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="12"/>
+      <c r="A48" s="15"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="12"/>
+      <c r="A50" s="15"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="12"/>
-      <c r="B51" s="14" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="32" customHeight="1">
-      <c r="A53" s="12">
+      <c r="A53" s="15">
         <v>8</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="12"/>
+      <c r="A54" s="15"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1">
-      <c r="A55" s="12"/>
-      <c r="B55" s="15" t="s">
+      <c r="A55" s="15"/>
+      <c r="B55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="57" spans="1:4" ht="31" customHeight="1">
-      <c r="A57" s="12">
+      <c r="A57" s="15">
         <v>9</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="12"/>
+      <c r="A58" s="15"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="12"/>
-      <c r="B59" s="14" t="s">
+      <c r="A59" s="15"/>
+      <c r="B59" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="12"/>
+      <c r="A60" s="15"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="12"/>
-      <c r="B61" s="14" t="s">
+      <c r="A61" s="15"/>
+      <c r="B61" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="13"/>
+      <c r="A64" s="14"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="13"/>
+      <c r="A66" s="14"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1">
-      <c r="A67" s="13"/>
-      <c r="B67" s="15" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="13"/>
+      <c r="A68" s="14"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="71" spans="1:4" ht="29" customHeight="1">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="13"/>
+      <c r="A72" s="14"/>
     </row>
     <row r="73" spans="1:4" ht="31" customHeight="1">
-      <c r="A73" s="13"/>
-      <c r="B73" s="15" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="13"/>
+      <c r="A74" s="14"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14" t="s">
+      <c r="A75" s="14"/>
+      <c r="B75" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A63:A69"/>
     <mergeCell ref="A71:A75"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
@@ -5018,16 +7067,22 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B73:D73"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5043,8 +7098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5096,268 +7151,268 @@
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="31" customHeight="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="44" customHeight="1">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="44" customHeight="1">
       <c r="A25" s="4">
         <v>7</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="45" customHeight="1">
       <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1">
       <c r="A29" s="4">
         <v>9</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="33" spans="1:17" ht="48" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B33:Q33"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B13:Q13"/>
     <mergeCell ref="B15:Q15"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B33:Q33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5386,24 +7441,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5486,208 +7541,208 @@
       <c r="A18" s="4">
         <v>0</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1">
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="4">
         <v>7</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
     </row>
     <row r="34" spans="1:17" ht="48" customHeight="1">
       <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5716,7 +7771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -5729,24 +7784,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5802,208 +7857,208 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="21" spans="1:17" ht="31" customHeight="1">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="45" customHeight="1">
       <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="33" customHeight="1">
       <c r="A27" s="4">
         <v>7</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6220,665 +8275,644 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
-      <c r="A20" s="12">
+      <c r="A20" s="15">
         <v>1</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="12"/>
+      <c r="A21" s="15"/>
     </row>
     <row r="22" spans="1:17" ht="29" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="24" spans="1:17" ht="29" customHeight="1">
-      <c r="A24" s="12">
+      <c r="A24" s="15">
         <v>2</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="12"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="12">
+      <c r="A28" s="15">
         <v>3</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="12"/>
+      <c r="A29" s="15"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="12"/>
+      <c r="A31" s="15"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="12"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
-      <c r="A34" s="12">
+      <c r="A34" s="15">
         <v>4</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="12"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" ht="29" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
-      <c r="A38" s="12">
+      <c r="A38" s="15">
         <v>5</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="12"/>
+      <c r="A39" s="15"/>
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="12">
+      <c r="A42" s="15">
         <v>6</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="12"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="12"/>
+      <c r="A45" s="15"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="12"/>
-      <c r="B46" s="14" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
     </row>
     <row r="48" spans="1:17" ht="30" customHeight="1">
-      <c r="A48" s="12">
+      <c r="A48" s="15">
         <v>7</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="12"/>
+      <c r="A49" s="15"/>
     </row>
     <row r="50" spans="1:17" ht="29" customHeight="1">
-      <c r="A50" s="12"/>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
     </row>
     <row r="52" spans="1:17" ht="46" customHeight="1">
       <c r="A52" s="4">
         <v>8</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="12">
+      <c r="A54" s="15">
         <v>9</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="12"/>
+      <c r="A55" s="15"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="12"/>
-      <c r="B56" s="14" t="s">
+      <c r="A56" s="15"/>
+      <c r="B56" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="12"/>
+      <c r="A57" s="15"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="12"/>
-      <c r="B58" s="14" t="s">
+      <c r="A58" s="15"/>
+      <c r="B58" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="13"/>
+      <c r="A61" s="14"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="13"/>
+      <c r="A63" s="14"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="13"/>
+      <c r="A65" s="14"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="13"/>
+      <c r="A69" s="14"/>
     </row>
     <row r="70" spans="1:17" ht="31" customHeight="1">
-      <c r="A70" s="13"/>
-      <c r="B70" s="15" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="13"/>
+      <c r="A71" s="14"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B68:Q68"/>
-    <mergeCell ref="B70:Q70"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="B60:Q60"/>
-    <mergeCell ref="B62:Q62"/>
-    <mergeCell ref="B64:Q64"/>
-    <mergeCell ref="B66:Q66"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="B46:Q46"/>
-    <mergeCell ref="B48:Q48"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="B52:Q52"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="A68:A72"/>
@@ -6895,6 +8929,27 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="B48:Q48"/>
+    <mergeCell ref="B50:Q50"/>
+    <mergeCell ref="B52:Q52"/>
+    <mergeCell ref="B68:Q68"/>
+    <mergeCell ref="B70:Q70"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="B60:Q60"/>
+    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="B64:Q64"/>
+    <mergeCell ref="B66:Q66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7034,268 +9089,268 @@
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
     </row>
     <row r="32" spans="1:17" ht="29" customHeight="1">
       <c r="A32" s="4">
         <v>8</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
     </row>
     <row r="34" spans="1:17" ht="46" customHeight="1">
       <c r="A34" s="4">
         <v>9</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
     </row>
     <row r="36" spans="1:17" ht="46" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
     </row>
     <row r="38" spans="1:17" ht="48" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
     <mergeCell ref="B28:Q28"/>
     <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B20:Q20"/>
     <mergeCell ref="B22:Q22"/>
     <mergeCell ref="B24:Q24"/>
     <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="920" windowWidth="25600" windowHeight="12960" tabRatio="500" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="3580" yWindow="920" windowWidth="25600" windowHeight="12960" tabRatio="500" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Pseudocode" sheetId="16" r:id="rId1"/>
@@ -1473,14 +1473,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1570,68 +1563,68 @@
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1652,33 +1645,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3313,268 +3306,268 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
     </row>
     <row r="41" spans="1:17" ht="48" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B41:Q41"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="B27:Q27"/>
     <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B41:Q41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3789,208 +3782,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
     </row>
     <row r="29" spans="1:17" ht="44" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4031,24 +4024,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -4222,208 +4215,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4465,24 +4458,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -4523,602 +4516,613 @@
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
     </row>
     <row r="59" spans="1:17" ht="32" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B61:Q61"/>
+    <mergeCell ref="B63:Q63"/>
+    <mergeCell ref="B47:Q47"/>
+    <mergeCell ref="B49:Q49"/>
+    <mergeCell ref="B51:Q51"/>
+    <mergeCell ref="B53:Q53"/>
+    <mergeCell ref="B55:Q55"/>
+    <mergeCell ref="B57:Q57"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B41:Q41"/>
@@ -5135,17 +5139,6 @@
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B61:Q61"/>
-    <mergeCell ref="B63:Q63"/>
-    <mergeCell ref="B47:Q47"/>
-    <mergeCell ref="B49:Q49"/>
-    <mergeCell ref="B51:Q51"/>
-    <mergeCell ref="B53:Q53"/>
-    <mergeCell ref="B55:Q55"/>
-    <mergeCell ref="B57:Q57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5183,190 +5176,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1"/>
-    <row r="2" spans="1:6" s="18" customFormat="1"/>
-    <row r="3" spans="1:6" s="18" customFormat="1">
-      <c r="B3" s="20" t="s">
+    <row r="1" spans="1:6" s="14" customFormat="1"/>
+    <row r="2" spans="1:6" s="14" customFormat="1"/>
+    <row r="3" spans="1:6" s="14" customFormat="1">
+      <c r="B3" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21" t="s">
+    <row r="4" spans="1:6" s="14" customFormat="1">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1">
-      <c r="B5" s="22">
+    <row r="5" spans="1:6" s="14" customFormat="1">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1">
-      <c r="B6" s="22">
+    <row r="6" spans="1:6" s="14" customFormat="1">
+      <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="17">
         <v>7</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="17" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1">
-      <c r="B7" s="22">
+    <row r="7" spans="1:6" s="14" customFormat="1">
+      <c r="B7" s="17">
         <v>3</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="17">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1">
-      <c r="B8" s="22">
+    <row r="8" spans="1:6" s="14" customFormat="1">
+      <c r="B8" s="17">
         <v>4</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="18" customFormat="1">
-      <c r="B9" s="22">
+    <row r="9" spans="1:6" s="14" customFormat="1">
+      <c r="B9" s="17">
         <v>5</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="17">
         <v>5</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="17">
         <v>6</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="17" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="18" customFormat="1">
-      <c r="B10" s="22">
+    <row r="10" spans="1:6" s="14" customFormat="1">
+      <c r="B10" s="17">
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="17">
         <v>5</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="17">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="18" customFormat="1">
-      <c r="B11" s="22">
+    <row r="11" spans="1:6" s="14" customFormat="1">
+      <c r="B11" s="17">
         <v>7</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="17">
         <v>4</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="17" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="18" customFormat="1">
-      <c r="B12" s="22">
+    <row r="12" spans="1:6" s="14" customFormat="1">
+      <c r="B12" s="17">
         <v>8</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="17">
         <v>6</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="17">
         <v>3</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="17" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="18" customFormat="1">
-      <c r="B13" s="22">
+    <row r="13" spans="1:6" s="14" customFormat="1">
+      <c r="B13" s="17">
         <v>9</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="17">
         <v>3</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="17" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5379,7 +5372,7 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <v>3</v>
       </c>
       <c r="C16" t="s">
@@ -5640,7 +5633,7 @@
       <c r="B64">
         <v>8</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="13" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5911,145 +5904,145 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1">
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" s="18" customFormat="1">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19" t="s">
+    <row r="1" spans="1:8" s="14" customFormat="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" s="14" customFormat="1">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" s="18" customFormat="1">
-      <c r="B3" s="19">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" s="14" customFormat="1">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>355</v>
       </c>
       <c r="E3" t="s">
         <v>356</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" s="18" customFormat="1">
-      <c r="B4" s="19">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" s="14" customFormat="1">
+      <c r="B4" s="15">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>359</v>
       </c>
       <c r="E4" t="s">
         <v>360</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" s="18" customFormat="1">
-      <c r="B5" s="19">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" s="14" customFormat="1">
+      <c r="B5" s="15">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" s="18" customFormat="1">
-      <c r="B6" s="19">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" s="14" customFormat="1">
+      <c r="B6" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" s="18" customFormat="1">
-      <c r="B7" s="19">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" s="14" customFormat="1">
+      <c r="B7" s="15">
         <v>5</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>369</v>
       </c>
       <c r="E7" t="s">
         <v>356</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" s="18" customFormat="1">
-      <c r="B8" s="19">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" s="14" customFormat="1">
+      <c r="B8" s="15">
         <v>6</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" s="18" customFormat="1">
-      <c r="B9" s="19">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" s="14" customFormat="1">
+      <c r="B9" s="15">
         <v>7</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>374</v>
       </c>
       <c r="D9">
@@ -6058,49 +6051,49 @@
       <c r="E9" t="s">
         <v>360</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" s="18" customFormat="1">
-      <c r="B10" s="19">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" s="14" customFormat="1">
+      <c r="B10" s="15">
         <v>8</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>376</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" s="18" customFormat="1">
-      <c r="B11" s="19">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" s="14" customFormat="1">
+      <c r="B11" s="15">
         <v>9</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -6710,347 +6703,353 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="15">
+      <c r="A15" s="18">
         <v>1</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="15"/>
+      <c r="A16" s="18"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="15"/>
+      <c r="A18" s="18"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="15">
+      <c r="A21" s="18">
         <v>2</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="15"/>
+      <c r="A22" s="18"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="15"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="15"/>
+      <c r="A24" s="18"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="15"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="15">
+      <c r="A27" s="18">
         <v>3</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="15"/>
+      <c r="A28" s="18"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="15">
+      <c r="A31" s="18">
         <v>4</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="15"/>
+      <c r="A32" s="18"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="15"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="15"/>
+      <c r="A34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="15"/>
+      <c r="A36" s="18"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="15"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="15">
+      <c r="A39" s="18">
         <v>5</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="15"/>
+      <c r="A40" s="18"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1">
-      <c r="A41" s="15"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1">
-      <c r="A43" s="15">
+      <c r="A43" s="18">
         <v>6</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="15"/>
+      <c r="A44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1">
-      <c r="A47" s="15">
+      <c r="A47" s="18">
         <v>7</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="15"/>
+      <c r="A48" s="18"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="15"/>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="15"/>
+      <c r="A50" s="18"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="15"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="53" spans="1:4" ht="32" customHeight="1">
-      <c r="A53" s="15">
+      <c r="A53" s="18">
         <v>8</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="15"/>
+      <c r="A54" s="18"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1">
-      <c r="A55" s="15"/>
-      <c r="B55" s="13" t="s">
+      <c r="A55" s="18"/>
+      <c r="B55" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="57" spans="1:4" ht="31" customHeight="1">
-      <c r="A57" s="15">
+      <c r="A57" s="18">
         <v>9</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="15"/>
+      <c r="A58" s="18"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="15"/>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="15"/>
+      <c r="A60" s="18"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="15"/>
-      <c r="B61" s="12" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="14"/>
+      <c r="A64" s="19"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="14"/>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="14"/>
+      <c r="A66" s="19"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1">
-      <c r="A67" s="14"/>
-      <c r="B67" s="13" t="s">
+      <c r="A67" s="19"/>
+      <c r="B67" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="14"/>
+      <c r="A68" s="19"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="14"/>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="19"/>
+      <c r="B69" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="71" spans="1:4" ht="29" customHeight="1">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="14"/>
+      <c r="A72" s="19"/>
     </row>
     <row r="73" spans="1:4" ht="31" customHeight="1">
-      <c r="A73" s="14"/>
-      <c r="B73" s="13" t="s">
+      <c r="A73" s="19"/>
+      <c r="B73" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="14"/>
+      <c r="A74" s="19"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="14"/>
-      <c r="B75" s="12" t="s">
+      <c r="A75" s="19"/>
+      <c r="B75" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="A71:A75"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
@@ -7067,22 +7066,16 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7151,268 +7144,268 @@
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
     </row>
     <row r="17" spans="1:17" ht="31" customHeight="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
     </row>
     <row r="23" spans="1:17" ht="44" customHeight="1">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
     </row>
     <row r="25" spans="1:17" ht="44" customHeight="1">
       <c r="A25" s="4">
         <v>7</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="27" spans="1:17" ht="45" customHeight="1">
       <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1">
       <c r="A29" s="4">
         <v>9</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
     </row>
     <row r="33" spans="1:17" ht="48" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B33:Q33"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B13:Q13"/>
     <mergeCell ref="B15:Q15"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B33:Q33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7441,24 +7434,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -7541,208 +7534,208 @@
       <c r="A18" s="4">
         <v>0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1">
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="4">
         <v>7</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
     </row>
     <row r="34" spans="1:17" ht="48" customHeight="1">
       <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7784,24 +7777,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -7857,208 +7850,208 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
     </row>
     <row r="21" spans="1:17" ht="31" customHeight="1">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
     </row>
     <row r="25" spans="1:17" ht="45" customHeight="1">
       <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="27" spans="1:17" ht="33" customHeight="1">
       <c r="A27" s="4">
         <v>7</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8275,644 +8268,665 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
-      <c r="A20" s="15">
+      <c r="A20" s="18">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="15"/>
+      <c r="A21" s="18"/>
     </row>
     <row r="22" spans="1:17" ht="29" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
     </row>
     <row r="24" spans="1:17" ht="29" customHeight="1">
-      <c r="A24" s="15">
+      <c r="A24" s="18">
         <v>2</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="15"/>
+      <c r="A25" s="18"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="15"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="15">
+      <c r="A28" s="18">
         <v>3</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="15"/>
+      <c r="A29" s="18"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="15"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="15"/>
+      <c r="A31" s="18"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="15"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
-      <c r="A34" s="15">
+      <c r="A34" s="18">
         <v>4</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="15"/>
+      <c r="A35" s="18"/>
     </row>
     <row r="36" spans="1:17" ht="29" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
-      <c r="A38" s="15">
+      <c r="A38" s="18">
         <v>5</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="15"/>
+      <c r="A39" s="18"/>
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="15">
+      <c r="A42" s="18">
         <v>6</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="15"/>
+      <c r="A43" s="18"/>
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
-      <c r="A44" s="15"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="15"/>
+      <c r="A45" s="18"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="15"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
     </row>
     <row r="48" spans="1:17" ht="30" customHeight="1">
-      <c r="A48" s="15">
+      <c r="A48" s="18">
         <v>7</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="15"/>
+      <c r="A49" s="18"/>
     </row>
     <row r="50" spans="1:17" ht="29" customHeight="1">
-      <c r="A50" s="15"/>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
     </row>
     <row r="52" spans="1:17" ht="46" customHeight="1">
       <c r="A52" s="4">
         <v>8</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="15">
+      <c r="A54" s="18">
         <v>9</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="15"/>
+      <c r="A55" s="18"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="15"/>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="15"/>
+      <c r="A57" s="18"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="15"/>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="14"/>
+      <c r="A61" s="19"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="14"/>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="14"/>
+      <c r="A63" s="19"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="14"/>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="19"/>
+      <c r="B64" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="14"/>
+      <c r="A65" s="19"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="14"/>
-      <c r="B66" s="12" t="s">
+      <c r="A66" s="19"/>
+      <c r="B66" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="14"/>
+      <c r="A69" s="19"/>
     </row>
     <row r="70" spans="1:17" ht="31" customHeight="1">
-      <c r="A70" s="14"/>
-      <c r="B70" s="13" t="s">
+      <c r="A70" s="19"/>
+      <c r="B70" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="14"/>
+      <c r="A71" s="19"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="14"/>
-      <c r="B72" s="12" t="s">
+      <c r="A72" s="19"/>
+      <c r="B72" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B68:Q68"/>
+    <mergeCell ref="B70:Q70"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="B60:Q60"/>
+    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="B64:Q64"/>
+    <mergeCell ref="B66:Q66"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="B48:Q48"/>
+    <mergeCell ref="B50:Q50"/>
+    <mergeCell ref="B52:Q52"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="A68:A72"/>
@@ -8929,27 +8943,6 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="B46:Q46"/>
-    <mergeCell ref="B48:Q48"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="B52:Q52"/>
-    <mergeCell ref="B68:Q68"/>
-    <mergeCell ref="B70:Q70"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="B60:Q60"/>
-    <mergeCell ref="B62:Q62"/>
-    <mergeCell ref="B64:Q64"/>
-    <mergeCell ref="B66:Q66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8965,8 +8958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:Q38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9055,6 +9048,10 @@
       <c r="B10" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="C10">
+        <f>3</f>
+        <v>3</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>79</v>
       </c>
@@ -9074,6 +9071,9 @@
       <c r="B12" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3" t="s">
@@ -9089,268 +9089,268 @@
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
     </row>
     <row r="32" spans="1:17" ht="29" customHeight="1">
       <c r="A32" s="4">
         <v>8</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
     </row>
     <row r="34" spans="1:17" ht="46" customHeight="1">
       <c r="A34" s="4">
         <v>9</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
     </row>
     <row r="36" spans="1:17" ht="46" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
     </row>
     <row r="38" spans="1:17" ht="48" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
     <mergeCell ref="B28:Q28"/>
     <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B20:Q20"/>
     <mergeCell ref="B22:Q22"/>
     <mergeCell ref="B24:Q24"/>
     <mergeCell ref="B26:Q26"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="920" windowWidth="25600" windowHeight="12960" tabRatio="500" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="3580" yWindow="920" windowWidth="25600" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pseudocode" sheetId="16" r:id="rId1"/>
@@ -1659,15 +1659,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2067,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3306,268 +3306,268 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
     </row>
     <row r="41" spans="1:17" ht="48" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B41:Q41"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="B27:Q27"/>
     <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B41:Q41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3782,208 +3782,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="31" customHeight="1">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="29" spans="1:17" ht="44" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4024,24 +4024,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -4215,208 +4215,208 @@
       <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="31" customHeight="1">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
     </row>
     <row r="31" spans="1:17" ht="29" customHeight="1">
       <c r="A31" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1">
       <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
     </row>
     <row r="37" spans="1:17" ht="32" customHeight="1">
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4458,24 +4458,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -4516,613 +4516,602 @@
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
     </row>
     <row r="59" spans="1:17" ht="32" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B61:Q61"/>
-    <mergeCell ref="B63:Q63"/>
-    <mergeCell ref="B47:Q47"/>
-    <mergeCell ref="B49:Q49"/>
-    <mergeCell ref="B51:Q51"/>
-    <mergeCell ref="B53:Q53"/>
-    <mergeCell ref="B55:Q55"/>
-    <mergeCell ref="B57:Q57"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B41:Q41"/>
@@ -5139,6 +5128,17 @@
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B61:Q61"/>
+    <mergeCell ref="B63:Q63"/>
+    <mergeCell ref="B47:Q47"/>
+    <mergeCell ref="B49:Q49"/>
+    <mergeCell ref="B51:Q51"/>
+    <mergeCell ref="B53:Q53"/>
+    <mergeCell ref="B55:Q55"/>
+    <mergeCell ref="B57:Q57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6703,353 +6703,347 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="18">
+      <c r="A15" s="21">
         <v>1</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="18"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18"/>
+      <c r="A18" s="21"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="18">
+      <c r="A21" s="21">
         <v>2</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="18"/>
+      <c r="A22" s="21"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="18"/>
+      <c r="A24" s="21"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="18">
+      <c r="A27" s="21">
         <v>3</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18"/>
+      <c r="A28" s="21"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="18">
+      <c r="A31" s="21">
         <v>4</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="18"/>
+      <c r="A32" s="21"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="18"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="18"/>
+      <c r="A34" s="21"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="18"/>
+      <c r="A36" s="21"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="18"/>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="18">
+      <c r="A39" s="21">
         <v>5</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="18"/>
+      <c r="A40" s="21"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="21" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1">
-      <c r="A43" s="18">
+      <c r="A43" s="21">
         <v>6</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="18"/>
+      <c r="A44" s="21"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="21" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1">
-      <c r="A47" s="18">
+      <c r="A47" s="21">
         <v>7</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="18"/>
+      <c r="A48" s="21"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="18"/>
+      <c r="A50" s="21"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="18"/>
-      <c r="B51" s="20" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="53" spans="1:4" ht="32" customHeight="1">
-      <c r="A53" s="18">
+      <c r="A53" s="21">
         <v>8</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="18"/>
+      <c r="A54" s="21"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="21" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
     </row>
     <row r="57" spans="1:4" ht="31" customHeight="1">
-      <c r="A57" s="18">
+      <c r="A57" s="21">
         <v>9</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="18"/>
+      <c r="A58" s="21"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="18"/>
-      <c r="B59" s="20" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="18"/>
+      <c r="A60" s="21"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="18"/>
-      <c r="B61" s="20" t="s">
+      <c r="A61" s="21"/>
+      <c r="B61" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="19"/>
+      <c r="A64" s="20"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20" t="s">
+      <c r="A65" s="20"/>
+      <c r="B65" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="19"/>
+      <c r="A66" s="20"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1">
-      <c r="A67" s="19"/>
-      <c r="B67" s="21" t="s">
+      <c r="A67" s="20"/>
+      <c r="B67" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="19"/>
+      <c r="A68" s="20"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20" t="s">
+      <c r="A69" s="20"/>
+      <c r="B69" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
     </row>
     <row r="71" spans="1:4" ht="29" customHeight="1">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="19"/>
+      <c r="A72" s="20"/>
     </row>
     <row r="73" spans="1:4" ht="31" customHeight="1">
-      <c r="A73" s="19"/>
-      <c r="B73" s="21" t="s">
+      <c r="A73" s="20"/>
+      <c r="B73" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="19"/>
+      <c r="A74" s="20"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20" t="s">
+      <c r="A75" s="20"/>
+      <c r="B75" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A63:A69"/>
     <mergeCell ref="A71:A75"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
@@ -7066,16 +7060,22 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B73:D73"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7144,268 +7144,268 @@
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="31" customHeight="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="44" customHeight="1">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="44" customHeight="1">
       <c r="A25" s="4">
         <v>7</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="45" customHeight="1">
       <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1">
       <c r="A29" s="4">
         <v>9</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
     </row>
     <row r="33" spans="1:17" ht="48" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B33:Q33"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B13:Q13"/>
     <mergeCell ref="B15:Q15"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B33:Q33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7434,24 +7434,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -7534,208 +7534,208 @@
       <c r="A18" s="4">
         <v>0</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1">
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="4">
         <v>7</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
     </row>
     <row r="34" spans="1:17" ht="48" customHeight="1">
       <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7777,24 +7777,24 @@
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -7850,208 +7850,208 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="31" customHeight="1">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="31" customHeight="1">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="45" customHeight="1">
       <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="33" customHeight="1">
       <c r="A27" s="4">
         <v>7</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8268,665 +8268,644 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
-      <c r="A20" s="18">
+      <c r="A20" s="21">
         <v>1</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="18"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="22" spans="1:17" ht="29" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="29" customHeight="1">
-      <c r="A24" s="18">
+      <c r="A24" s="21">
         <v>2</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="18"/>
+      <c r="A25" s="21"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="18"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="18">
+      <c r="A28" s="21">
         <v>3</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="18"/>
+      <c r="A29" s="21"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="18"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
-      <c r="A34" s="18">
+      <c r="A34" s="21">
         <v>4</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="18"/>
+      <c r="A35" s="21"/>
     </row>
     <row r="36" spans="1:17" ht="29" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
-      <c r="A38" s="18">
+      <c r="A38" s="21">
         <v>5</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="18"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="18">
+      <c r="A42" s="21">
         <v>6</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="18"/>
+      <c r="A43" s="21"/>
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="18"/>
+      <c r="A45" s="21"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="18"/>
-      <c r="B46" s="20" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
     </row>
     <row r="48" spans="1:17" ht="30" customHeight="1">
-      <c r="A48" s="18">
+      <c r="A48" s="21">
         <v>7</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="18"/>
+      <c r="A49" s="21"/>
     </row>
     <row r="50" spans="1:17" ht="29" customHeight="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="21" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
     </row>
     <row r="52" spans="1:17" ht="46" customHeight="1">
       <c r="A52" s="4">
         <v>8</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="18">
+      <c r="A54" s="21">
         <v>9</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="18"/>
+      <c r="A55" s="21"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="18"/>
-      <c r="B56" s="20" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="18"/>
+      <c r="A57" s="21"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="18"/>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="19"/>
+      <c r="A61" s="20"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20" t="s">
+      <c r="A62" s="20"/>
+      <c r="B62" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="19"/>
+      <c r="A63" s="20"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="20"/>
+      <c r="B64" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="19"/>
+      <c r="A65" s="20"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20" t="s">
+      <c r="A66" s="20"/>
+      <c r="B66" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="19"/>
+      <c r="A69" s="20"/>
     </row>
     <row r="70" spans="1:17" ht="31" customHeight="1">
-      <c r="A70" s="19"/>
-      <c r="B70" s="21" t="s">
+      <c r="A70" s="20"/>
+      <c r="B70" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="19"/>
+      <c r="A71" s="20"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="19"/>
-      <c r="B72" s="20" t="s">
+      <c r="A72" s="20"/>
+      <c r="B72" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B68:Q68"/>
-    <mergeCell ref="B70:Q70"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="B60:Q60"/>
-    <mergeCell ref="B62:Q62"/>
-    <mergeCell ref="B64:Q64"/>
-    <mergeCell ref="B66:Q66"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="B46:Q46"/>
-    <mergeCell ref="B48:Q48"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="B52:Q52"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="A68:A72"/>
@@ -8943,6 +8922,27 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="B48:Q48"/>
+    <mergeCell ref="B50:Q50"/>
+    <mergeCell ref="B52:Q52"/>
+    <mergeCell ref="B68:Q68"/>
+    <mergeCell ref="B70:Q70"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="B60:Q60"/>
+    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="B64:Q64"/>
+    <mergeCell ref="B66:Q66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8958,8 +8958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9048,10 +9048,6 @@
       <c r="B10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C10">
-        <f>3</f>
-        <v>3</v>
-      </c>
       <c r="D10" s="3" t="s">
         <v>79</v>
       </c>
@@ -9071,9 +9067,6 @@
       <c r="B12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3" t="s">
@@ -9089,268 +9082,268 @@
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="31" customHeight="1">
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="31" customHeight="1">
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
     </row>
     <row r="32" spans="1:17" ht="29" customHeight="1">
       <c r="A32" s="4">
         <v>8</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
     </row>
     <row r="34" spans="1:17" ht="46" customHeight="1">
       <c r="A34" s="4">
         <v>9</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
     </row>
     <row r="36" spans="1:17" ht="46" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
     </row>
     <row r="38" spans="1:17" ht="48" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:Q38"/>
     <mergeCell ref="B28:Q28"/>
     <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B20:Q20"/>
     <mergeCell ref="B22:Q22"/>
     <mergeCell ref="B24:Q24"/>
     <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:Q38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
